--- a/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,9 @@
     <t>['41', '66', '86']</t>
   </si>
   <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -791,6 +794,9 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['42', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1402,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1483,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>0.25</v>
@@ -1587,7 +1593,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1969,7 +1975,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2056,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2250,7 +2256,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2351,7 +2357,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2542,7 +2548,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2632,7 +2638,7 @@
         <v>2.5</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3115,7 +3121,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3497,7 +3503,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3879,7 +3885,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4070,7 +4076,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4452,7 +4458,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4643,7 +4649,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4834,7 +4840,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4924,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>2.27</v>
@@ -5112,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT21">
         <v>0.88</v>
@@ -5407,7 +5413,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5494,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
         <v>1.38</v>
@@ -5789,7 +5795,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -6171,7 +6177,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6553,7 +6559,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7126,7 +7132,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7317,7 +7323,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7407,7 +7413,7 @@
         <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.82</v>
@@ -7508,7 +7514,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7699,7 +7705,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8081,7 +8087,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8463,7 +8469,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8741,7 +8747,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
         <v>1.38</v>
@@ -9036,7 +9042,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9227,7 +9233,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9314,7 +9320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT43">
         <v>1.22</v>
@@ -9609,7 +9615,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9699,7 +9705,7 @@
         <v>2.67</v>
       </c>
       <c r="AT45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU45">
         <v>3.01</v>
@@ -10182,7 +10188,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10373,7 +10379,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10755,7 +10761,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10946,7 +10952,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11036,7 +11042,7 @@
         <v>2.25</v>
       </c>
       <c r="AT52">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.64</v>
@@ -11328,7 +11334,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11519,7 +11525,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11710,7 +11716,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11901,7 +11907,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12283,7 +12289,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12370,7 +12376,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT59">
         <v>0.78</v>
@@ -12474,7 +12480,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12564,7 +12570,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU60">
         <v>1.51</v>
@@ -12665,7 +12671,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12943,7 +12949,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13047,7 +13053,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13238,7 +13244,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13429,7 +13435,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13620,7 +13626,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13898,7 +13904,7 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
         <v>0.88</v>
@@ -14002,7 +14008,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14384,7 +14390,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14474,7 +14480,7 @@
         <v>1.89</v>
       </c>
       <c r="AT70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>1.39</v>
@@ -14575,7 +14581,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14766,7 +14772,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15044,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT73">
         <v>0.89</v>
@@ -15339,7 +15345,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15530,7 +15536,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15721,7 +15727,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16103,7 +16109,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16676,7 +16682,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16957,7 +16963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.18</v>
@@ -17058,7 +17064,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17145,7 +17151,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT84">
         <v>0.44</v>
@@ -17249,7 +17255,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17440,7 +17446,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17527,7 +17533,7 @@
         <v>0.2</v>
       </c>
       <c r="AS86">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT86">
         <v>0.25</v>
@@ -17631,7 +17637,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17721,7 +17727,7 @@
         <v>2.5</v>
       </c>
       <c r="AT87">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU87">
         <v>1.98</v>
@@ -18204,7 +18210,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18586,7 +18592,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19058,7 +19064,7 @@
         <v>1.89</v>
       </c>
       <c r="AT94">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU94">
         <v>1.87</v>
@@ -19350,7 +19356,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19631,7 +19637,7 @@
         <v>0.89</v>
       </c>
       <c r="AT97">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.52</v>
@@ -19923,7 +19929,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20392,7 +20398,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT101">
         <v>1.78</v>
@@ -20687,7 +20693,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -21260,7 +21266,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21451,7 +21457,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21541,7 +21547,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU107">
         <v>1.76</v>
@@ -21642,7 +21648,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22024,7 +22030,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22111,7 +22117,7 @@
         <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT110">
         <v>1.38</v>
@@ -22215,7 +22221,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22406,7 +22412,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22496,7 +22502,7 @@
         <v>2.44</v>
       </c>
       <c r="AT112">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>2.09</v>
@@ -22597,7 +22603,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22684,7 +22690,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT113">
         <v>0.44</v>
@@ -22979,7 +22985,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23934,7 +23940,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24024,7 +24030,7 @@
         <v>1.44</v>
       </c>
       <c r="AT120">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU120">
         <v>2.38</v>
@@ -24316,7 +24322,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -25361,7 +25367,7 @@
         <v>1.38</v>
       </c>
       <c r="AT127">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU127">
         <v>1.49</v>
@@ -25549,7 +25555,7 @@
         <v>1.57</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT128">
         <v>1.38</v>
@@ -25653,7 +25659,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25844,7 +25850,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26226,7 +26232,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26417,7 +26423,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26990,7 +26996,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -28327,7 +28333,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28518,7 +28524,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28709,7 +28715,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>12</v>
@@ -28851,6 +28857,579 @@
       </c>
       <c r="BK145">
         <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5182990</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
+        <v>80</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>121</v>
+      </c>
+      <c r="P146" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
+        <v>2.4</v>
+      </c>
+      <c r="U146">
+        <v>2.25</v>
+      </c>
+      <c r="V146">
+        <v>4.5</v>
+      </c>
+      <c r="W146">
+        <v>1.37</v>
+      </c>
+      <c r="X146">
+        <v>2.95</v>
+      </c>
+      <c r="Y146">
+        <v>2.7</v>
+      </c>
+      <c r="Z146">
+        <v>1.43</v>
+      </c>
+      <c r="AA146">
+        <v>6.7</v>
+      </c>
+      <c r="AB146">
+        <v>1.09</v>
+      </c>
+      <c r="AC146">
+        <v>1.73</v>
+      </c>
+      <c r="AD146">
+        <v>3.5</v>
+      </c>
+      <c r="AE146">
+        <v>4.2</v>
+      </c>
+      <c r="AF146">
+        <v>1.01</v>
+      </c>
+      <c r="AG146">
+        <v>9.6</v>
+      </c>
+      <c r="AH146">
+        <v>1.25</v>
+      </c>
+      <c r="AI146">
+        <v>3.6</v>
+      </c>
+      <c r="AJ146">
+        <v>1.82</v>
+      </c>
+      <c r="AK146">
+        <v>1.84</v>
+      </c>
+      <c r="AL146">
+        <v>1.76</v>
+      </c>
+      <c r="AM146">
+        <v>2.01</v>
+      </c>
+      <c r="AN146">
+        <v>1.22</v>
+      </c>
+      <c r="AO146">
+        <v>1.27</v>
+      </c>
+      <c r="AP146">
+        <v>1.99</v>
+      </c>
+      <c r="AQ146">
+        <v>1.75</v>
+      </c>
+      <c r="AR146">
+        <v>1.13</v>
+      </c>
+      <c r="AS146">
+        <v>1.89</v>
+      </c>
+      <c r="AT146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
+        <v>1.58</v>
+      </c>
+      <c r="AV146">
+        <v>1.55</v>
+      </c>
+      <c r="AW146">
+        <v>3.13</v>
+      </c>
+      <c r="AX146">
+        <v>1.82</v>
+      </c>
+      <c r="AY146">
+        <v>7.5</v>
+      </c>
+      <c r="AZ146">
+        <v>2.4</v>
+      </c>
+      <c r="BA146">
+        <v>1.38</v>
+      </c>
+      <c r="BB146">
+        <v>1.67</v>
+      </c>
+      <c r="BC146">
+        <v>2.17</v>
+      </c>
+      <c r="BD146">
+        <v>2.9</v>
+      </c>
+      <c r="BE146">
+        <v>3.9</v>
+      </c>
+      <c r="BF146">
+        <v>6</v>
+      </c>
+      <c r="BG146">
+        <v>2</v>
+      </c>
+      <c r="BH146">
+        <v>6</v>
+      </c>
+      <c r="BI146">
+        <v>7</v>
+      </c>
+      <c r="BJ146">
+        <v>12</v>
+      </c>
+      <c r="BK146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5182984</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>65</v>
+      </c>
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>191</v>
+      </c>
+      <c r="P147" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>4.33</v>
+      </c>
+      <c r="U147">
+        <v>2.38</v>
+      </c>
+      <c r="V147">
+        <v>2.38</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>3.34</v>
+      </c>
+      <c r="Y147">
+        <v>2.41</v>
+      </c>
+      <c r="Z147">
+        <v>1.53</v>
+      </c>
+      <c r="AA147">
+        <v>5.55</v>
+      </c>
+      <c r="AB147">
+        <v>1.12</v>
+      </c>
+      <c r="AC147">
+        <v>3.25</v>
+      </c>
+      <c r="AD147">
+        <v>3.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.95</v>
+      </c>
+      <c r="AF147">
+        <v>1.03</v>
+      </c>
+      <c r="AG147">
+        <v>13</v>
+      </c>
+      <c r="AH147">
+        <v>1.17</v>
+      </c>
+      <c r="AI147">
+        <v>4.5</v>
+      </c>
+      <c r="AJ147">
+        <v>1.62</v>
+      </c>
+      <c r="AK147">
+        <v>2.1</v>
+      </c>
+      <c r="AL147">
+        <v>1.59</v>
+      </c>
+      <c r="AM147">
+        <v>2.29</v>
+      </c>
+      <c r="AN147">
+        <v>1.99</v>
+      </c>
+      <c r="AO147">
+        <v>1.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.24</v>
+      </c>
+      <c r="AQ147">
+        <v>1.88</v>
+      </c>
+      <c r="AR147">
+        <v>1.75</v>
+      </c>
+      <c r="AS147">
+        <v>1.67</v>
+      </c>
+      <c r="AT147">
+        <v>1.89</v>
+      </c>
+      <c r="AU147">
+        <v>1.69</v>
+      </c>
+      <c r="AV147">
+        <v>1.5</v>
+      </c>
+      <c r="AW147">
+        <v>3.19</v>
+      </c>
+      <c r="AX147">
+        <v>2.39</v>
+      </c>
+      <c r="AY147">
+        <v>8</v>
+      </c>
+      <c r="AZ147">
+        <v>1.82</v>
+      </c>
+      <c r="BA147">
+        <v>1.35</v>
+      </c>
+      <c r="BB147">
+        <v>1.63</v>
+      </c>
+      <c r="BC147">
+        <v>2.1</v>
+      </c>
+      <c r="BD147">
+        <v>2.8</v>
+      </c>
+      <c r="BE147">
+        <v>4</v>
+      </c>
+      <c r="BF147">
+        <v>11</v>
+      </c>
+      <c r="BG147">
+        <v>7</v>
+      </c>
+      <c r="BH147">
+        <v>7</v>
+      </c>
+      <c r="BI147">
+        <v>6</v>
+      </c>
+      <c r="BJ147">
+        <v>18</v>
+      </c>
+      <c r="BK147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5182989</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>86</v>
+      </c>
+      <c r="P148" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q148">
+        <v>7</v>
+      </c>
+      <c r="R148">
+        <v>5</v>
+      </c>
+      <c r="S148">
+        <v>12</v>
+      </c>
+      <c r="T148">
+        <v>3.6</v>
+      </c>
+      <c r="U148">
+        <v>2.38</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.29</v>
+      </c>
+      <c r="X148">
+        <v>3.44</v>
+      </c>
+      <c r="Y148">
+        <v>2.34</v>
+      </c>
+      <c r="Z148">
+        <v>1.56</v>
+      </c>
+      <c r="AA148">
+        <v>5.35</v>
+      </c>
+      <c r="AB148">
+        <v>1.13</v>
+      </c>
+      <c r="AC148">
+        <v>2.55</v>
+      </c>
+      <c r="AD148">
+        <v>3.4</v>
+      </c>
+      <c r="AE148">
+        <v>2.4</v>
+      </c>
+      <c r="AF148">
+        <v>1.03</v>
+      </c>
+      <c r="AG148">
+        <v>12.5</v>
+      </c>
+      <c r="AH148">
+        <v>1.15</v>
+      </c>
+      <c r="AI148">
+        <v>4.45</v>
+      </c>
+      <c r="AJ148">
+        <v>1.57</v>
+      </c>
+      <c r="AK148">
+        <v>2.25</v>
+      </c>
+      <c r="AL148">
+        <v>1.51</v>
+      </c>
+      <c r="AM148">
+        <v>2.48</v>
+      </c>
+      <c r="AN148">
+        <v>1.73</v>
+      </c>
+      <c r="AO148">
+        <v>1.26</v>
+      </c>
+      <c r="AP148">
+        <v>1.35</v>
+      </c>
+      <c r="AQ148">
+        <v>1</v>
+      </c>
+      <c r="AR148">
+        <v>1</v>
+      </c>
+      <c r="AS148">
+        <v>1</v>
+      </c>
+      <c r="AT148">
+        <v>1</v>
+      </c>
+      <c r="AU148">
+        <v>1.78</v>
+      </c>
+      <c r="AV148">
+        <v>1.59</v>
+      </c>
+      <c r="AW148">
+        <v>3.37</v>
+      </c>
+      <c r="AX148">
+        <v>2.52</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>1.75</v>
+      </c>
+      <c r="BA148">
+        <v>1.39</v>
+      </c>
+      <c r="BB148">
+        <v>1.72</v>
+      </c>
+      <c r="BC148">
+        <v>2.19</v>
+      </c>
+      <c r="BD148">
+        <v>2.98</v>
+      </c>
+      <c r="BE148">
+        <v>4.1</v>
+      </c>
+      <c r="BF148">
+        <v>3</v>
+      </c>
+      <c r="BG148">
+        <v>4</v>
+      </c>
+      <c r="BH148">
+        <v>11</v>
+      </c>
+      <c r="BI148">
+        <v>6</v>
+      </c>
+      <c r="BJ148">
+        <v>14</v>
+      </c>
+      <c r="BK148">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,18 @@
     <t>['45+6']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['44', '56']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -647,9 +659,6 @@
   </si>
   <si>
     <t>['36', '41']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['19', '31']</t>
@@ -733,9 +742,6 @@
     <t>['30', '65']</t>
   </si>
   <si>
-    <t>['72']</t>
-  </si>
-  <si>
     <t>['51', '82']</t>
   </si>
   <si>
@@ -797,6 +803,9 @@
   </si>
   <si>
     <t>['42', '90+2']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1411,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1593,7 +1602,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1680,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1871,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1975,7 +1984,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2253,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT6">
         <v>1.89</v>
@@ -2357,7 +2366,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2444,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT7">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2548,7 +2557,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2829,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3121,7 +3130,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3503,7 +3512,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3885,7 +3894,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4076,7 +4085,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4458,7 +4467,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4545,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT18">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>2.71</v>
@@ -4649,7 +4658,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4736,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4840,7 +4849,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5121,7 +5130,7 @@
         <v>1.89</v>
       </c>
       <c r="AT21">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU21">
         <v>1.88</v>
@@ -5309,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5413,7 +5422,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5503,7 +5512,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU23">
         <v>1.86</v>
@@ -5691,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT24">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU24">
         <v>1.42</v>
@@ -5795,7 +5804,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -6073,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT26">
         <v>0.44</v>
@@ -6177,7 +6186,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6559,7 +6568,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7132,7 +7141,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7323,7 +7332,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7410,7 +7419,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -7514,7 +7523,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7604,7 +7613,7 @@
         <v>1.89</v>
       </c>
       <c r="AT34">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7705,7 +7714,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7983,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.6</v>
@@ -8087,7 +8096,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8177,7 +8186,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU37">
         <v>2.02</v>
@@ -8365,10 +8374,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8469,7 +8478,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8556,7 +8565,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8750,7 +8759,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>1.62</v>
@@ -9042,7 +9051,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9129,7 +9138,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT42">
         <v>1.78</v>
@@ -9233,7 +9242,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9615,7 +9624,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10188,7 +10197,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10379,7 +10388,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10466,10 +10475,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU49">
         <v>1.76</v>
@@ -10660,7 +10669,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10761,7 +10770,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10851,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>2.26</v>
@@ -10952,7 +10961,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11039,7 +11048,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11233,7 +11242,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>0.93</v>
@@ -11334,7 +11343,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11525,7 +11534,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11716,7 +11725,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11806,7 +11815,7 @@
         <v>0.89</v>
       </c>
       <c r="AT56">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU56">
         <v>1.59</v>
@@ -11907,7 +11916,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11994,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT57">
         <v>0.44</v>
@@ -12289,7 +12298,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12480,7 +12489,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12671,7 +12680,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13053,7 +13062,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13140,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>1.22</v>
@@ -13244,7 +13253,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13435,7 +13444,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13522,7 +13531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT65">
         <v>0.44</v>
@@ -13626,7 +13635,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13716,7 +13725,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>0.98</v>
@@ -13907,7 +13916,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU67">
         <v>1.53</v>
@@ -14008,7 +14017,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14098,7 +14107,7 @@
         <v>2.67</v>
       </c>
       <c r="AT68">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>2.84</v>
@@ -14286,7 +14295,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT69">
         <v>0.5600000000000001</v>
@@ -14390,7 +14399,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14581,7 +14590,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14671,7 +14680,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU71">
         <v>1.46</v>
@@ -14772,7 +14781,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15241,7 +15250,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT74">
         <v>0.78</v>
@@ -15345,7 +15354,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15432,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT75">
         <v>0.11</v>
@@ -15536,7 +15545,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15626,7 +15635,7 @@
         <v>2.44</v>
       </c>
       <c r="AT76">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU76">
         <v>2.14</v>
@@ -15727,7 +15736,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16008,7 +16017,7 @@
         <v>0.89</v>
       </c>
       <c r="AT78">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.6</v>
@@ -16109,7 +16118,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16196,7 +16205,7 @@
         <v>2.5</v>
       </c>
       <c r="AS79">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT79">
         <v>1.78</v>
@@ -16387,7 +16396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT80">
         <v>1.22</v>
@@ -16682,7 +16691,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17064,7 +17073,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17255,7 +17264,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17345,7 +17354,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU85">
         <v>2.21</v>
@@ -17446,7 +17455,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17637,7 +17646,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17724,7 +17733,7 @@
         <v>2.33</v>
       </c>
       <c r="AS87">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT87">
         <v>1.89</v>
@@ -17918,7 +17927,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU88">
         <v>1.66</v>
@@ -18210,7 +18219,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18297,7 +18306,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT90">
         <v>0.89</v>
@@ -18491,7 +18500,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU91">
         <v>2.43</v>
@@ -18592,7 +18601,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18679,7 +18688,7 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>0.44</v>
@@ -18873,7 +18882,7 @@
         <v>2.44</v>
       </c>
       <c r="AT93">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19252,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT95">
         <v>0.44</v>
@@ -19356,7 +19365,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19443,7 +19452,7 @@
         <v>0.5</v>
       </c>
       <c r="AS96">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT96">
         <v>0.5600000000000001</v>
@@ -19828,7 +19837,7 @@
         <v>2.67</v>
       </c>
       <c r="AT98">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU98">
         <v>2.32</v>
@@ -19929,7 +19938,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20693,7 +20702,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20780,7 +20789,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT103">
         <v>0.78</v>
@@ -21162,10 +21171,10 @@
         <v>1.67</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT105">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21266,7 +21275,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21356,7 +21365,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21457,7 +21466,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21648,7 +21657,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21735,7 +21744,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT108">
         <v>0.25</v>
@@ -21926,7 +21935,7 @@
         <v>0.83</v>
       </c>
       <c r="AS109">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT109">
         <v>0.89</v>
@@ -22030,7 +22039,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22120,7 +22129,7 @@
         <v>1.89</v>
       </c>
       <c r="AT110">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22221,7 +22230,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22311,7 +22320,7 @@
         <v>1.44</v>
       </c>
       <c r="AT111">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>2.36</v>
@@ -22412,7 +22421,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22603,7 +22612,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22985,7 +22994,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23075,7 +23084,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23940,7 +23949,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24218,7 +24227,7 @@
         <v>0</v>
       </c>
       <c r="AS121">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT121">
         <v>0.11</v>
@@ -24322,7 +24331,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24412,7 +24421,7 @@
         <v>1</v>
       </c>
       <c r="AT122">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU122">
         <v>1.82</v>
@@ -24791,7 +24800,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT124">
         <v>0.25</v>
@@ -24982,10 +24991,10 @@
         <v>1.29</v>
       </c>
       <c r="AS125">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.78</v>
@@ -25173,10 +25182,10 @@
         <v>1.57</v>
       </c>
       <c r="AS126">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT126">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU126">
         <v>1.95</v>
@@ -25364,7 +25373,7 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT127">
         <v>1.89</v>
@@ -25558,7 +25567,7 @@
         <v>1.89</v>
       </c>
       <c r="AT128">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU128">
         <v>1.6</v>
@@ -25659,7 +25668,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25746,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>0.11</v>
@@ -25850,7 +25859,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26131,7 +26140,7 @@
         <v>1.44</v>
       </c>
       <c r="AT131">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU131">
         <v>2.39</v>
@@ -26232,7 +26241,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26423,7 +26432,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26996,7 +27005,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -28333,7 +28342,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28524,7 +28533,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28715,7 +28724,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>12</v>
@@ -29097,7 +29106,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29430,6 +29439,961 @@
       </c>
       <c r="BK148">
         <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5182985</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45123.77083333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>69</v>
+      </c>
+      <c r="H149" t="s">
+        <v>79</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>192</v>
+      </c>
+      <c r="P149" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>1</v>
+      </c>
+      <c r="S149">
+        <v>3</v>
+      </c>
+      <c r="T149">
+        <v>3.1</v>
+      </c>
+      <c r="U149">
+        <v>2.08</v>
+      </c>
+      <c r="V149">
+        <v>3.32</v>
+      </c>
+      <c r="W149">
+        <v>1.41</v>
+      </c>
+      <c r="X149">
+        <v>2.78</v>
+      </c>
+      <c r="Y149">
+        <v>2.9</v>
+      </c>
+      <c r="Z149">
+        <v>1.38</v>
+      </c>
+      <c r="AA149">
+        <v>7.5</v>
+      </c>
+      <c r="AB149">
+        <v>1.07</v>
+      </c>
+      <c r="AC149">
+        <v>2.4</v>
+      </c>
+      <c r="AD149">
+        <v>3.3</v>
+      </c>
+      <c r="AE149">
+        <v>2.6</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>8.6</v>
+      </c>
+      <c r="AH149">
+        <v>1.29</v>
+      </c>
+      <c r="AI149">
+        <v>3.14</v>
+      </c>
+      <c r="AJ149">
+        <v>1.95</v>
+      </c>
+      <c r="AK149">
+        <v>1.75</v>
+      </c>
+      <c r="AL149">
+        <v>1.75</v>
+      </c>
+      <c r="AM149">
+        <v>2.03</v>
+      </c>
+      <c r="AN149">
+        <v>1.46</v>
+      </c>
+      <c r="AO149">
+        <v>1.32</v>
+      </c>
+      <c r="AP149">
+        <v>1.5</v>
+      </c>
+      <c r="AQ149">
+        <v>2.25</v>
+      </c>
+      <c r="AR149">
+        <v>1.38</v>
+      </c>
+      <c r="AS149">
+        <v>2.33</v>
+      </c>
+      <c r="AT149">
+        <v>1.22</v>
+      </c>
+      <c r="AU149">
+        <v>1.92</v>
+      </c>
+      <c r="AV149">
+        <v>1.26</v>
+      </c>
+      <c r="AW149">
+        <v>3.18</v>
+      </c>
+      <c r="AX149">
+        <v>1.59</v>
+      </c>
+      <c r="AY149">
+        <v>8</v>
+      </c>
+      <c r="AZ149">
+        <v>2.8</v>
+      </c>
+      <c r="BA149">
+        <v>1.28</v>
+      </c>
+      <c r="BB149">
+        <v>1.51</v>
+      </c>
+      <c r="BC149">
+        <v>2</v>
+      </c>
+      <c r="BD149">
+        <v>2.45</v>
+      </c>
+      <c r="BE149">
+        <v>3.34</v>
+      </c>
+      <c r="BF149">
+        <v>7</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>5</v>
+      </c>
+      <c r="BI149">
+        <v>7</v>
+      </c>
+      <c r="BJ149">
+        <v>12</v>
+      </c>
+      <c r="BK149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5182986</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45123.85416666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>189</v>
+      </c>
+      <c r="P150" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>7</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2.4</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.27</v>
+      </c>
+      <c r="X150">
+        <v>3.54</v>
+      </c>
+      <c r="Y150">
+        <v>2.25</v>
+      </c>
+      <c r="Z150">
+        <v>1.6</v>
+      </c>
+      <c r="AA150">
+        <v>5.05</v>
+      </c>
+      <c r="AB150">
+        <v>1.15</v>
+      </c>
+      <c r="AC150">
+        <v>2.2</v>
+      </c>
+      <c r="AD150">
+        <v>3.5</v>
+      </c>
+      <c r="AE150">
+        <v>2.7</v>
+      </c>
+      <c r="AF150">
+        <v>1.02</v>
+      </c>
+      <c r="AG150">
+        <v>17.75</v>
+      </c>
+      <c r="AH150">
+        <v>1.13</v>
+      </c>
+      <c r="AI150">
+        <v>4.75</v>
+      </c>
+      <c r="AJ150">
+        <v>1.53</v>
+      </c>
+      <c r="AK150">
+        <v>2.35</v>
+      </c>
+      <c r="AL150">
+        <v>1.46</v>
+      </c>
+      <c r="AM150">
+        <v>2.63</v>
+      </c>
+      <c r="AN150">
+        <v>1.42</v>
+      </c>
+      <c r="AO150">
+        <v>1.26</v>
+      </c>
+      <c r="AP150">
+        <v>1.63</v>
+      </c>
+      <c r="AQ150">
+        <v>1.38</v>
+      </c>
+      <c r="AR150">
+        <v>1.38</v>
+      </c>
+      <c r="AS150">
+        <v>1.56</v>
+      </c>
+      <c r="AT150">
+        <v>1.22</v>
+      </c>
+      <c r="AU150">
+        <v>1.78</v>
+      </c>
+      <c r="AV150">
+        <v>1.25</v>
+      </c>
+      <c r="AW150">
+        <v>3.03</v>
+      </c>
+      <c r="AX150">
+        <v>1.95</v>
+      </c>
+      <c r="AY150">
+        <v>7.5</v>
+      </c>
+      <c r="AZ150">
+        <v>2.1</v>
+      </c>
+      <c r="BA150">
+        <v>1.35</v>
+      </c>
+      <c r="BB150">
+        <v>1.63</v>
+      </c>
+      <c r="BC150">
+        <v>2.11</v>
+      </c>
+      <c r="BD150">
+        <v>2.79</v>
+      </c>
+      <c r="BE150">
+        <v>3.92</v>
+      </c>
+      <c r="BF150">
+        <v>2</v>
+      </c>
+      <c r="BG150">
+        <v>3</v>
+      </c>
+      <c r="BH150">
+        <v>8</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>10</v>
+      </c>
+      <c r="BK150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5182991</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45124.66666666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>71</v>
+      </c>
+      <c r="H151" t="s">
+        <v>77</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>193</v>
+      </c>
+      <c r="P151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q151">
+        <v>4</v>
+      </c>
+      <c r="R151">
+        <v>5</v>
+      </c>
+      <c r="S151">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>2.2</v>
+      </c>
+      <c r="V151">
+        <v>4.5</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>2.82</v>
+      </c>
+      <c r="Y151">
+        <v>2.86</v>
+      </c>
+      <c r="Z151">
+        <v>1.39</v>
+      </c>
+      <c r="AA151">
+        <v>7.3</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>1.85</v>
+      </c>
+      <c r="AD151">
+        <v>3.55</v>
+      </c>
+      <c r="AE151">
+        <v>4.2</v>
+      </c>
+      <c r="AF151">
+        <v>1.02</v>
+      </c>
+      <c r="AG151">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH151">
+        <v>1.28</v>
+      </c>
+      <c r="AI151">
+        <v>3.2</v>
+      </c>
+      <c r="AJ151">
+        <v>2.02</v>
+      </c>
+      <c r="AK151">
+        <v>1.8</v>
+      </c>
+      <c r="AL151">
+        <v>1.8</v>
+      </c>
+      <c r="AM151">
+        <v>1.96</v>
+      </c>
+      <c r="AN151">
+        <v>1.25</v>
+      </c>
+      <c r="AO151">
+        <v>1.29</v>
+      </c>
+      <c r="AP151">
+        <v>1.86</v>
+      </c>
+      <c r="AQ151">
+        <v>2.5</v>
+      </c>
+      <c r="AR151">
+        <v>0.88</v>
+      </c>
+      <c r="AS151">
+        <v>2.56</v>
+      </c>
+      <c r="AT151">
+        <v>0.78</v>
+      </c>
+      <c r="AU151">
+        <v>1.69</v>
+      </c>
+      <c r="AV151">
+        <v>1.27</v>
+      </c>
+      <c r="AW151">
+        <v>2.96</v>
+      </c>
+      <c r="AX151">
+        <v>1.55</v>
+      </c>
+      <c r="AY151">
+        <v>8</v>
+      </c>
+      <c r="AZ151">
+        <v>2.92</v>
+      </c>
+      <c r="BA151">
+        <v>1.31</v>
+      </c>
+      <c r="BB151">
+        <v>1.57</v>
+      </c>
+      <c r="BC151">
+        <v>2</v>
+      </c>
+      <c r="BD151">
+        <v>2.6</v>
+      </c>
+      <c r="BE151">
+        <v>3.64</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>4</v>
+      </c>
+      <c r="BH151">
+        <v>7</v>
+      </c>
+      <c r="BI151">
+        <v>1</v>
+      </c>
+      <c r="BJ151">
+        <v>10</v>
+      </c>
+      <c r="BK151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5182988</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45124.77083333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>66</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>194</v>
+      </c>
+      <c r="P152" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q152">
+        <v>8</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152">
+        <v>9</v>
+      </c>
+      <c r="T152">
+        <v>1.8</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>7.5</v>
+      </c>
+      <c r="W152">
+        <v>1.28</v>
+      </c>
+      <c r="X152">
+        <v>3.48</v>
+      </c>
+      <c r="Y152">
+        <v>2.31</v>
+      </c>
+      <c r="Z152">
+        <v>1.57</v>
+      </c>
+      <c r="AA152">
+        <v>5.25</v>
+      </c>
+      <c r="AB152">
+        <v>1.14</v>
+      </c>
+      <c r="AC152">
+        <v>1.22</v>
+      </c>
+      <c r="AD152">
+        <v>6.35</v>
+      </c>
+      <c r="AE152">
+        <v>12</v>
+      </c>
+      <c r="AF152">
+        <v>1.02</v>
+      </c>
+      <c r="AG152">
+        <v>14</v>
+      </c>
+      <c r="AH152">
+        <v>1.15</v>
+      </c>
+      <c r="AI152">
+        <v>4.5</v>
+      </c>
+      <c r="AJ152">
+        <v>1.56</v>
+      </c>
+      <c r="AK152">
+        <v>2.33</v>
+      </c>
+      <c r="AL152">
+        <v>1.88</v>
+      </c>
+      <c r="AM152">
+        <v>1.88</v>
+      </c>
+      <c r="AN152">
+        <v>1.06</v>
+      </c>
+      <c r="AO152">
+        <v>1.15</v>
+      </c>
+      <c r="AP152">
+        <v>3.32</v>
+      </c>
+      <c r="AQ152">
+        <v>2.5</v>
+      </c>
+      <c r="AR152">
+        <v>1.13</v>
+      </c>
+      <c r="AS152">
+        <v>2.56</v>
+      </c>
+      <c r="AT152">
+        <v>1</v>
+      </c>
+      <c r="AU152">
+        <v>1.94</v>
+      </c>
+      <c r="AV152">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW152">
+        <v>2.88</v>
+      </c>
+      <c r="AX152">
+        <v>1.18</v>
+      </c>
+      <c r="AY152">
+        <v>11</v>
+      </c>
+      <c r="AZ152">
+        <v>6.16</v>
+      </c>
+      <c r="BA152">
+        <v>1.31</v>
+      </c>
+      <c r="BB152">
+        <v>1.57</v>
+      </c>
+      <c r="BC152">
+        <v>2</v>
+      </c>
+      <c r="BD152">
+        <v>2.6</v>
+      </c>
+      <c r="BE152">
+        <v>3.56</v>
+      </c>
+      <c r="BF152">
+        <v>6</v>
+      </c>
+      <c r="BG152">
+        <v>5</v>
+      </c>
+      <c r="BH152">
+        <v>7</v>
+      </c>
+      <c r="BI152">
+        <v>3</v>
+      </c>
+      <c r="BJ152">
+        <v>13</v>
+      </c>
+      <c r="BK152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5182987</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45124.875</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H153" t="s">
+        <v>74</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>195</v>
+      </c>
+      <c r="P153" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q153">
+        <v>11</v>
+      </c>
+      <c r="R153">
+        <v>1</v>
+      </c>
+      <c r="S153">
+        <v>12</v>
+      </c>
+      <c r="T153">
+        <v>2.3</v>
+      </c>
+      <c r="U153">
+        <v>2.25</v>
+      </c>
+      <c r="V153">
+        <v>5</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>3</v>
+      </c>
+      <c r="Y153">
+        <v>2.75</v>
+      </c>
+      <c r="Z153">
+        <v>1.4</v>
+      </c>
+      <c r="AA153">
+        <v>8</v>
+      </c>
+      <c r="AB153">
+        <v>1.08</v>
+      </c>
+      <c r="AC153">
+        <v>1.53</v>
+      </c>
+      <c r="AD153">
+        <v>4.15</v>
+      </c>
+      <c r="AE153">
+        <v>6.05</v>
+      </c>
+      <c r="AF153">
+        <v>1.01</v>
+      </c>
+      <c r="AG153">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH153">
+        <v>1.26</v>
+      </c>
+      <c r="AI153">
+        <v>3.34</v>
+      </c>
+      <c r="AJ153">
+        <v>1.97</v>
+      </c>
+      <c r="AK153">
+        <v>1.85</v>
+      </c>
+      <c r="AL153">
+        <v>1.83</v>
+      </c>
+      <c r="AM153">
+        <v>1.93</v>
+      </c>
+      <c r="AN153">
+        <v>1.18</v>
+      </c>
+      <c r="AO153">
+        <v>1.22</v>
+      </c>
+      <c r="AP153">
+        <v>2</v>
+      </c>
+      <c r="AQ153">
+        <v>1.38</v>
+      </c>
+      <c r="AR153">
+        <v>1.38</v>
+      </c>
+      <c r="AS153">
+        <v>1.33</v>
+      </c>
+      <c r="AT153">
+        <v>1.33</v>
+      </c>
+      <c r="AU153">
+        <v>1.42</v>
+      </c>
+      <c r="AV153">
+        <v>1.6</v>
+      </c>
+      <c r="AW153">
+        <v>3.02</v>
+      </c>
+      <c r="AX153">
+        <v>1.64</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>2.77</v>
+      </c>
+      <c r="BA153">
+        <v>1.36</v>
+      </c>
+      <c r="BB153">
+        <v>1.67</v>
+      </c>
+      <c r="BC153">
+        <v>2.1</v>
+      </c>
+      <c r="BD153">
+        <v>2.84</v>
+      </c>
+      <c r="BE153">
+        <v>4</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>6</v>
+      </c>
+      <c r="BI153">
+        <v>7</v>
+      </c>
+      <c r="BJ153">
+        <v>11</v>
+      </c>
+      <c r="BK153">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
@@ -29999,19 +29999,19 @@
         <v>3</v>
       </c>
       <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>6</v>
+      </c>
+      <c r="BI151">
+        <v>1</v>
+      </c>
+      <c r="BJ151">
+        <v>9</v>
+      </c>
+      <c r="BK151">
         <v>4</v>
-      </c>
-      <c r="BH151">
-        <v>7</v>
-      </c>
-      <c r="BI151">
-        <v>1</v>
-      </c>
-      <c r="BJ151">
-        <v>10</v>
-      </c>
-      <c r="BK151">
-        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,21 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['45', '90+4']</t>
+  </si>
+  <si>
+    <t>['25', '42', '56']</t>
+  </si>
+  <si>
+    <t>['6', '44']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -799,13 +814,13 @@
     <t>['28', '48', '72']</t>
   </si>
   <si>
-    <t>['6']</t>
-  </si>
-  <si>
     <t>['42', '90+2']</t>
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['21', '61']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1426,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1501,7 +1516,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1602,7 +1617,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1984,7 +1999,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2366,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2557,7 +2572,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3026,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT10">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3130,7 +3145,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3408,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT12">
         <v>0.44</v>
@@ -3512,7 +3527,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3599,10 +3614,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3790,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
         <v>0.5600000000000001</v>
@@ -3894,7 +3909,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3984,7 +3999,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4085,7 +4100,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4172,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT16">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4363,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4467,7 +4482,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4658,7 +4673,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4849,7 +4864,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5422,7 +5437,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5804,7 +5819,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -5891,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU25">
         <v>1.07</v>
@@ -6085,7 +6100,7 @@
         <v>2.56</v>
       </c>
       <c r="AT26">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU26">
         <v>1.77</v>
@@ -6186,7 +6201,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6273,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT27">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU27">
         <v>3.11</v>
@@ -6568,7 +6583,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6658,7 +6673,7 @@
         <v>0.89</v>
       </c>
       <c r="AT29">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU29">
         <v>1.67</v>
@@ -6846,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT30">
         <v>0.78</v>
@@ -7037,10 +7052,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT31">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU31">
         <v>2.79</v>
@@ -7141,7 +7156,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7228,10 +7243,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT32">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU32">
         <v>0.9</v>
@@ -7332,7 +7347,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7523,7 +7538,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8096,7 +8111,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8183,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT37">
         <v>1.22</v>
@@ -8478,7 +8493,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8950,7 +8965,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU41">
         <v>1.36</v>
@@ -9051,7 +9066,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9141,7 +9156,7 @@
         <v>2.56</v>
       </c>
       <c r="AT42">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU42">
         <v>1.59</v>
@@ -9242,7 +9257,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9332,7 +9347,7 @@
         <v>1.89</v>
       </c>
       <c r="AT43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU43">
         <v>2.22</v>
@@ -9520,7 +9535,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
         <v>0.78</v>
@@ -9624,7 +9639,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9711,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT45">
         <v>1.89</v>
@@ -9902,10 +9917,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT46">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU46">
         <v>2.44</v>
@@ -10096,7 +10111,7 @@
         <v>0.89</v>
       </c>
       <c r="AT47">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU47">
         <v>1.43</v>
@@ -10197,7 +10212,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10284,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT48">
         <v>0.44</v>
@@ -10388,7 +10403,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10770,7 +10785,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10857,7 +10872,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT51">
         <v>1.33</v>
@@ -10961,7 +10976,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11239,7 +11254,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT53">
         <v>1.22</v>
@@ -11343,7 +11358,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11430,10 +11445,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT54">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU54">
         <v>2.39</v>
@@ -11534,7 +11549,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11624,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU55">
         <v>1.69</v>
@@ -11725,7 +11740,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11916,7 +11931,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12194,10 +12209,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT58">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU58">
         <v>2.12</v>
@@ -12298,7 +12313,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12489,7 +12504,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12680,7 +12695,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12767,10 +12782,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT61">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13062,7 +13077,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13152,7 +13167,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU63">
         <v>1.84</v>
@@ -13253,7 +13268,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13340,7 +13355,7 @@
         <v>1.5</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13444,7 +13459,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13534,7 +13549,7 @@
         <v>1.56</v>
       </c>
       <c r="AT65">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU65">
         <v>1.94</v>
@@ -13635,7 +13650,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13722,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -14017,7 +14032,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14104,7 +14119,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14399,7 +14414,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14590,7 +14605,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14781,7 +14796,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15062,7 +15077,7 @@
         <v>1.89</v>
       </c>
       <c r="AT73">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU73">
         <v>1.68</v>
@@ -15354,7 +15369,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15444,7 +15459,7 @@
         <v>2.56</v>
       </c>
       <c r="AT75">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU75">
         <v>2.01</v>
@@ -15545,7 +15560,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15632,7 +15647,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT76">
         <v>1.22</v>
@@ -15736,7 +15751,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -15823,10 +15838,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU77">
         <v>1.52</v>
@@ -16118,7 +16133,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16208,7 +16223,7 @@
         <v>1.56</v>
       </c>
       <c r="AT79">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU79">
         <v>1.86</v>
@@ -16399,7 +16414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT80">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU80">
         <v>1.75</v>
@@ -16691,7 +16706,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16778,7 +16793,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16969,7 +16984,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17073,7 +17088,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17163,7 +17178,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17264,7 +17279,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17351,7 +17366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT85">
         <v>0.78</v>
@@ -17455,7 +17470,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17545,7 +17560,7 @@
         <v>1.89</v>
       </c>
       <c r="AT86">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17924,7 +17939,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT88">
         <v>1.22</v>
@@ -18118,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="AT89">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU89">
         <v>1.73</v>
@@ -18219,7 +18234,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18309,7 +18324,7 @@
         <v>2.56</v>
       </c>
       <c r="AT90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU90">
         <v>1.92</v>
@@ -18497,7 +18512,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT91">
         <v>1.22</v>
@@ -18601,7 +18616,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18879,7 +18894,7 @@
         <v>1.4</v>
       </c>
       <c r="AS93">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT93">
         <v>1.33</v>
@@ -19264,7 +19279,7 @@
         <v>2.56</v>
       </c>
       <c r="AT95">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU95">
         <v>1.81</v>
@@ -19365,7 +19380,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19834,7 +19849,7 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT98">
         <v>0.78</v>
@@ -19938,7 +19953,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20028,7 +20043,7 @@
         <v>1.89</v>
       </c>
       <c r="AT99">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU99">
         <v>1.77</v>
@@ -20216,7 +20231,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT100">
         <v>0.5600000000000001</v>
@@ -20410,7 +20425,7 @@
         <v>1.67</v>
       </c>
       <c r="AT101">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU101">
         <v>1.61</v>
@@ -20702,7 +20717,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20980,10 +20995,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT104">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU104">
         <v>2.15</v>
@@ -21275,7 +21290,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21362,7 +21377,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21466,7 +21481,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21657,7 +21672,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21747,7 +21762,7 @@
         <v>2.56</v>
       </c>
       <c r="AT108">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU108">
         <v>1.9</v>
@@ -21938,7 +21953,7 @@
         <v>1.56</v>
       </c>
       <c r="AT109">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU109">
         <v>1.83</v>
@@ -22039,7 +22054,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22230,7 +22245,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22317,7 +22332,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22421,7 +22436,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22508,7 +22523,7 @@
         <v>1.29</v>
       </c>
       <c r="AS112">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -22612,7 +22627,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22890,10 +22905,10 @@
         <v>1.17</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.29</v>
@@ -22994,7 +23009,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23272,10 +23287,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT116">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU116">
         <v>2.5</v>
@@ -23845,10 +23860,10 @@
         <v>2.17</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT119">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU119">
         <v>2.4</v>
@@ -23949,7 +23964,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24036,7 +24051,7 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT120">
         <v>1.89</v>
@@ -24230,7 +24245,7 @@
         <v>2.33</v>
       </c>
       <c r="AT121">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU121">
         <v>1.81</v>
@@ -24331,7 +24346,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24609,7 +24624,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24803,7 +24818,7 @@
         <v>1.56</v>
       </c>
       <c r="AT124">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AU124">
         <v>1.85</v>
@@ -25668,7 +25683,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25758,7 +25773,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU129">
         <v>1.44</v>
@@ -25859,7 +25874,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -25949,7 +25964,7 @@
         <v>1.89</v>
       </c>
       <c r="AT130">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU130">
         <v>1.75</v>
@@ -26137,7 +26152,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT131">
         <v>0.78</v>
@@ -26241,7 +26256,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26328,10 +26343,10 @@
         <v>1.86</v>
       </c>
       <c r="AS132">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT132">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU132">
         <v>2.61</v>
@@ -26432,7 +26447,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26522,7 +26537,7 @@
         <v>0.89</v>
       </c>
       <c r="AT133">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU133">
         <v>1.63</v>
@@ -26710,7 +26725,7 @@
         <v>0.57</v>
       </c>
       <c r="AS134">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT134">
         <v>0.44</v>
@@ -26901,7 +26916,7 @@
         <v>0.71</v>
       </c>
       <c r="AS135">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT135">
         <v>0.5600000000000001</v>
@@ -27005,7 +27020,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27092,7 +27107,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT136">
         <v>0.78</v>
@@ -27286,7 +27301,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU137">
         <v>1.63</v>
@@ -27474,7 +27489,7 @@
         <v>0.63</v>
       </c>
       <c r="AS138">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT138">
         <v>0.5600000000000001</v>
@@ -27668,7 +27683,7 @@
         <v>1.89</v>
       </c>
       <c r="AT139">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU139">
         <v>1.63</v>
@@ -27856,10 +27871,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT140">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU140">
         <v>2.19</v>
@@ -28047,7 +28062,7 @@
         <v>0.5</v>
       </c>
       <c r="AS141">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT141">
         <v>0.44</v>
@@ -28238,10 +28253,10 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT142">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU142">
         <v>2.39</v>
@@ -28342,7 +28357,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28432,7 +28447,7 @@
         <v>1.67</v>
       </c>
       <c r="AT143">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU143">
         <v>1.58</v>
@@ -28533,7 +28548,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28623,7 +28638,7 @@
         <v>0.89</v>
       </c>
       <c r="AT144">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU144">
         <v>1.64</v>
@@ -28724,7 +28739,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="Q145">
         <v>12</v>
@@ -28811,7 +28826,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT145">
         <v>0.78</v>
@@ -29106,7 +29121,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -30252,7 +30267,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30394,6 +30409,1152 @@
       </c>
       <c r="BK153">
         <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5182997</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>75</v>
+      </c>
+      <c r="H154" t="s">
+        <v>69</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154" t="s">
+        <v>86</v>
+      </c>
+      <c r="P154" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
+      <c r="T154">
+        <v>2.1</v>
+      </c>
+      <c r="U154">
+        <v>2.4</v>
+      </c>
+      <c r="V154">
+        <v>5</v>
+      </c>
+      <c r="W154">
+        <v>1.28</v>
+      </c>
+      <c r="X154">
+        <v>3.4</v>
+      </c>
+      <c r="Y154">
+        <v>2.36</v>
+      </c>
+      <c r="Z154">
+        <v>1.55</v>
+      </c>
+      <c r="AA154">
+        <v>5.45</v>
+      </c>
+      <c r="AB154">
+        <v>1.13</v>
+      </c>
+      <c r="AC154">
+        <v>1.77</v>
+      </c>
+      <c r="AD154">
+        <v>3.65</v>
+      </c>
+      <c r="AE154">
+        <v>4.2</v>
+      </c>
+      <c r="AF154">
+        <v>1.03</v>
+      </c>
+      <c r="AG154">
+        <v>15.25</v>
+      </c>
+      <c r="AH154">
+        <v>1.18</v>
+      </c>
+      <c r="AI154">
+        <v>4.42</v>
+      </c>
+      <c r="AJ154">
+        <v>1.54</v>
+      </c>
+      <c r="AK154">
+        <v>2.26</v>
+      </c>
+      <c r="AL154">
+        <v>1.64</v>
+      </c>
+      <c r="AM154">
+        <v>2.2</v>
+      </c>
+      <c r="AN154">
+        <v>1.16</v>
+      </c>
+      <c r="AO154">
+        <v>1.22</v>
+      </c>
+      <c r="AP154">
+        <v>2.31</v>
+      </c>
+      <c r="AQ154">
+        <v>2.67</v>
+      </c>
+      <c r="AR154">
+        <v>0.89</v>
+      </c>
+      <c r="AS154">
+        <v>2.5</v>
+      </c>
+      <c r="AT154">
+        <v>0.9</v>
+      </c>
+      <c r="AU154">
+        <v>2.6</v>
+      </c>
+      <c r="AV154">
+        <v>1.72</v>
+      </c>
+      <c r="AW154">
+        <v>4.32</v>
+      </c>
+      <c r="AX154">
+        <v>1.69</v>
+      </c>
+      <c r="AY154">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ154">
+        <v>2.5</v>
+      </c>
+      <c r="BA154">
+        <v>1.26</v>
+      </c>
+      <c r="BB154">
+        <v>1.48</v>
+      </c>
+      <c r="BC154">
+        <v>1.85</v>
+      </c>
+      <c r="BD154">
+        <v>2.38</v>
+      </c>
+      <c r="BE154">
+        <v>3.2</v>
+      </c>
+      <c r="BF154">
+        <v>-1</v>
+      </c>
+      <c r="BG154">
+        <v>-1</v>
+      </c>
+      <c r="BH154">
+        <v>-1</v>
+      </c>
+      <c r="BI154">
+        <v>-1</v>
+      </c>
+      <c r="BJ154">
+        <v>-1</v>
+      </c>
+      <c r="BK154">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5182998</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45129.77083333334</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>196</v>
+      </c>
+      <c r="P155" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>2</v>
+      </c>
+      <c r="S155">
+        <v>6</v>
+      </c>
+      <c r="T155">
+        <v>2.1</v>
+      </c>
+      <c r="U155">
+        <v>2.3</v>
+      </c>
+      <c r="V155">
+        <v>6</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>2.99</v>
+      </c>
+      <c r="Y155">
+        <v>2.7</v>
+      </c>
+      <c r="Z155">
+        <v>1.43</v>
+      </c>
+      <c r="AA155">
+        <v>6.65</v>
+      </c>
+      <c r="AB155">
+        <v>1.09</v>
+      </c>
+      <c r="AC155">
+        <v>1.57</v>
+      </c>
+      <c r="AD155">
+        <v>4.15</v>
+      </c>
+      <c r="AE155">
+        <v>5.6</v>
+      </c>
+      <c r="AF155">
+        <v>1.04</v>
+      </c>
+      <c r="AG155">
+        <v>12</v>
+      </c>
+      <c r="AH155">
+        <v>1.27</v>
+      </c>
+      <c r="AI155">
+        <v>3.55</v>
+      </c>
+      <c r="AJ155">
+        <v>1.86</v>
+      </c>
+      <c r="AK155">
+        <v>1.94</v>
+      </c>
+      <c r="AL155">
+        <v>1.91</v>
+      </c>
+      <c r="AM155">
+        <v>1.8</v>
+      </c>
+      <c r="AN155">
+        <v>1.15</v>
+      </c>
+      <c r="AO155">
+        <v>1.2</v>
+      </c>
+      <c r="AP155">
+        <v>2.37</v>
+      </c>
+      <c r="AQ155">
+        <v>1.67</v>
+      </c>
+      <c r="AR155">
+        <v>0.11</v>
+      </c>
+      <c r="AS155">
+        <v>1.8</v>
+      </c>
+      <c r="AT155">
+        <v>0.1</v>
+      </c>
+      <c r="AU155">
+        <v>1.41</v>
+      </c>
+      <c r="AV155">
+        <v>1.03</v>
+      </c>
+      <c r="AW155">
+        <v>2.44</v>
+      </c>
+      <c r="AX155">
+        <v>1.45</v>
+      </c>
+      <c r="AY155">
+        <v>8.5</v>
+      </c>
+      <c r="AZ155">
+        <v>3.33</v>
+      </c>
+      <c r="BA155">
+        <v>1.32</v>
+      </c>
+      <c r="BB155">
+        <v>1.59</v>
+      </c>
+      <c r="BC155">
+        <v>2.07</v>
+      </c>
+      <c r="BD155">
+        <v>2.75</v>
+      </c>
+      <c r="BE155">
+        <v>3.85</v>
+      </c>
+      <c r="BF155">
+        <v>6</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>5</v>
+      </c>
+      <c r="BI155">
+        <v>7</v>
+      </c>
+      <c r="BJ155">
+        <v>11</v>
+      </c>
+      <c r="BK155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5182992</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>197</v>
+      </c>
+      <c r="P156" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q156">
+        <v>3</v>
+      </c>
+      <c r="R156">
+        <v>4</v>
+      </c>
+      <c r="S156">
+        <v>7</v>
+      </c>
+      <c r="T156">
+        <v>3.1</v>
+      </c>
+      <c r="U156">
+        <v>2.05</v>
+      </c>
+      <c r="V156">
+        <v>3.6</v>
+      </c>
+      <c r="W156">
+        <v>1.45</v>
+      </c>
+      <c r="X156">
+        <v>2.55</v>
+      </c>
+      <c r="Y156">
+        <v>3.1</v>
+      </c>
+      <c r="Z156">
+        <v>1.32</v>
+      </c>
+      <c r="AA156">
+        <v>7</v>
+      </c>
+      <c r="AB156">
+        <v>1.07</v>
+      </c>
+      <c r="AC156">
+        <v>2.3</v>
+      </c>
+      <c r="AD156">
+        <v>3.2</v>
+      </c>
+      <c r="AE156">
+        <v>2.76</v>
+      </c>
+      <c r="AF156">
+        <v>1.06</v>
+      </c>
+      <c r="AG156">
+        <v>7.5</v>
+      </c>
+      <c r="AH156">
+        <v>1.37</v>
+      </c>
+      <c r="AI156">
+        <v>2.85</v>
+      </c>
+      <c r="AJ156">
+        <v>2.02</v>
+      </c>
+      <c r="AK156">
+        <v>1.67</v>
+      </c>
+      <c r="AL156">
+        <v>1.85</v>
+      </c>
+      <c r="AM156">
+        <v>1.85</v>
+      </c>
+      <c r="AN156">
+        <v>1.34</v>
+      </c>
+      <c r="AO156">
+        <v>1.27</v>
+      </c>
+      <c r="AP156">
+        <v>1.46</v>
+      </c>
+      <c r="AQ156">
+        <v>1.5</v>
+      </c>
+      <c r="AR156">
+        <v>0.44</v>
+      </c>
+      <c r="AS156">
+        <v>1.67</v>
+      </c>
+      <c r="AT156">
+        <v>0.4</v>
+      </c>
+      <c r="AU156">
+        <v>1.51</v>
+      </c>
+      <c r="AV156">
+        <v>1.07</v>
+      </c>
+      <c r="AW156">
+        <v>2.58</v>
+      </c>
+      <c r="AX156">
+        <v>1.91</v>
+      </c>
+      <c r="AY156">
+        <v>7.5</v>
+      </c>
+      <c r="AZ156">
+        <v>2.2</v>
+      </c>
+      <c r="BA156">
+        <v>1.4</v>
+      </c>
+      <c r="BB156">
+        <v>1.72</v>
+      </c>
+      <c r="BC156">
+        <v>2.23</v>
+      </c>
+      <c r="BD156">
+        <v>3</v>
+      </c>
+      <c r="BE156">
+        <v>4.1</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>2</v>
+      </c>
+      <c r="BH156">
+        <v>4</v>
+      </c>
+      <c r="BI156">
+        <v>9</v>
+      </c>
+      <c r="BJ156">
+        <v>8</v>
+      </c>
+      <c r="BK156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5182994</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45130.77083333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>66</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>198</v>
+      </c>
+      <c r="P157" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>2.6</v>
+      </c>
+      <c r="U157">
+        <v>2.3</v>
+      </c>
+      <c r="V157">
+        <v>4</v>
+      </c>
+      <c r="W157">
+        <v>1.32</v>
+      </c>
+      <c r="X157">
+        <v>3.1</v>
+      </c>
+      <c r="Y157">
+        <v>2.4</v>
+      </c>
+      <c r="Z157">
+        <v>1.5</v>
+      </c>
+      <c r="AA157">
+        <v>5.2</v>
+      </c>
+      <c r="AB157">
+        <v>1.12</v>
+      </c>
+      <c r="AC157">
+        <v>1.91</v>
+      </c>
+      <c r="AD157">
+        <v>3.4</v>
+      </c>
+      <c r="AE157">
+        <v>3.3</v>
+      </c>
+      <c r="AF157">
+        <v>1.03</v>
+      </c>
+      <c r="AG157">
+        <v>9</v>
+      </c>
+      <c r="AH157">
+        <v>1.2</v>
+      </c>
+      <c r="AI157">
+        <v>4.1</v>
+      </c>
+      <c r="AJ157">
+        <v>1.57</v>
+      </c>
+      <c r="AK157">
+        <v>2.15</v>
+      </c>
+      <c r="AL157">
+        <v>1.57</v>
+      </c>
+      <c r="AM157">
+        <v>2.25</v>
+      </c>
+      <c r="AN157">
+        <v>1.25</v>
+      </c>
+      <c r="AO157">
+        <v>1.23</v>
+      </c>
+      <c r="AP157">
+        <v>1.64</v>
+      </c>
+      <c r="AQ157">
+        <v>2.44</v>
+      </c>
+      <c r="AR157">
+        <v>1.78</v>
+      </c>
+      <c r="AS157">
+        <v>2.5</v>
+      </c>
+      <c r="AT157">
+        <v>1.6</v>
+      </c>
+      <c r="AU157">
+        <v>2.28</v>
+      </c>
+      <c r="AV157">
+        <v>1.4</v>
+      </c>
+      <c r="AW157">
+        <v>3.68</v>
+      </c>
+      <c r="AX157">
+        <v>1.75</v>
+      </c>
+      <c r="AY157">
+        <v>8</v>
+      </c>
+      <c r="AZ157">
+        <v>2.44</v>
+      </c>
+      <c r="BA157">
+        <v>1.36</v>
+      </c>
+      <c r="BB157">
+        <v>1.62</v>
+      </c>
+      <c r="BC157">
+        <v>2.03</v>
+      </c>
+      <c r="BD157">
+        <v>2.65</v>
+      </c>
+      <c r="BE157">
+        <v>3.6</v>
+      </c>
+      <c r="BF157">
+        <v>7</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>6</v>
+      </c>
+      <c r="BJ157">
+        <v>11</v>
+      </c>
+      <c r="BK157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5182993</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45130.85416666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>199</v>
+      </c>
+      <c r="P158" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>4</v>
+      </c>
+      <c r="S158">
+        <v>8</v>
+      </c>
+      <c r="T158">
+        <v>2.4</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>4.75</v>
+      </c>
+      <c r="W158">
+        <v>1.37</v>
+      </c>
+      <c r="X158">
+        <v>2.85</v>
+      </c>
+      <c r="Y158">
+        <v>2.75</v>
+      </c>
+      <c r="Z158">
+        <v>1.4</v>
+      </c>
+      <c r="AA158">
+        <v>6.5</v>
+      </c>
+      <c r="AB158">
+        <v>1.08</v>
+      </c>
+      <c r="AC158">
+        <v>1.75</v>
+      </c>
+      <c r="AD158">
+        <v>3.4</v>
+      </c>
+      <c r="AE158">
+        <v>4.2</v>
+      </c>
+      <c r="AF158">
+        <v>1.04</v>
+      </c>
+      <c r="AG158">
+        <v>8.5</v>
+      </c>
+      <c r="AH158">
+        <v>1.27</v>
+      </c>
+      <c r="AI158">
+        <v>3.4</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.83</v>
+      </c>
+      <c r="AL158">
+        <v>1.8</v>
+      </c>
+      <c r="AM158">
+        <v>1.9</v>
+      </c>
+      <c r="AN158">
+        <v>1.19</v>
+      </c>
+      <c r="AO158">
+        <v>1.23</v>
+      </c>
+      <c r="AP158">
+        <v>1.78</v>
+      </c>
+      <c r="AQ158">
+        <v>1.44</v>
+      </c>
+      <c r="AR158">
+        <v>1.22</v>
+      </c>
+      <c r="AS158">
+        <v>1.4</v>
+      </c>
+      <c r="AT158">
+        <v>1.2</v>
+      </c>
+      <c r="AU158">
+        <v>2.26</v>
+      </c>
+      <c r="AV158">
+        <v>1.35</v>
+      </c>
+      <c r="AW158">
+        <v>3.61</v>
+      </c>
+      <c r="AX158">
+        <v>1.39</v>
+      </c>
+      <c r="AY158">
+        <v>9.4</v>
+      </c>
+      <c r="AZ158">
+        <v>3.58</v>
+      </c>
+      <c r="BA158">
+        <v>1.32</v>
+      </c>
+      <c r="BB158">
+        <v>1.59</v>
+      </c>
+      <c r="BC158">
+        <v>2.03</v>
+      </c>
+      <c r="BD158">
+        <v>2.64</v>
+      </c>
+      <c r="BE158">
+        <v>3.65</v>
+      </c>
+      <c r="BF158">
+        <v>4</v>
+      </c>
+      <c r="BG158">
+        <v>6</v>
+      </c>
+      <c r="BH158">
+        <v>5</v>
+      </c>
+      <c r="BI158">
+        <v>4</v>
+      </c>
+      <c r="BJ158">
+        <v>9</v>
+      </c>
+      <c r="BK158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5182999</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45131.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>73</v>
+      </c>
+      <c r="H159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>200</v>
+      </c>
+      <c r="P159" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q159">
+        <v>11</v>
+      </c>
+      <c r="R159">
+        <v>1</v>
+      </c>
+      <c r="S159">
+        <v>12</v>
+      </c>
+      <c r="T159">
+        <v>1.62</v>
+      </c>
+      <c r="U159">
+        <v>2.75</v>
+      </c>
+      <c r="V159">
+        <v>9.5</v>
+      </c>
+      <c r="W159">
+        <v>1.25</v>
+      </c>
+      <c r="X159">
+        <v>3.6</v>
+      </c>
+      <c r="Y159">
+        <v>2.15</v>
+      </c>
+      <c r="Z159">
+        <v>1.62</v>
+      </c>
+      <c r="AA159">
+        <v>4.6</v>
+      </c>
+      <c r="AB159">
+        <v>1.16</v>
+      </c>
+      <c r="AC159">
+        <v>1.15</v>
+      </c>
+      <c r="AD159">
+        <v>7.5</v>
+      </c>
+      <c r="AE159">
+        <v>13</v>
+      </c>
+      <c r="AF159">
+        <v>1.01</v>
+      </c>
+      <c r="AG159">
+        <v>19.75</v>
+      </c>
+      <c r="AH159">
+        <v>1.14</v>
+      </c>
+      <c r="AI159">
+        <v>5.25</v>
+      </c>
+      <c r="AJ159">
+        <v>1.37</v>
+      </c>
+      <c r="AK159">
+        <v>2.71</v>
+      </c>
+      <c r="AL159">
+        <v>1.99</v>
+      </c>
+      <c r="AM159">
+        <v>1.73</v>
+      </c>
+      <c r="AN159">
+        <v>1.06</v>
+      </c>
+      <c r="AO159">
+        <v>1.12</v>
+      </c>
+      <c r="AP159">
+        <v>3.75</v>
+      </c>
+      <c r="AQ159">
+        <v>2</v>
+      </c>
+      <c r="AR159">
+        <v>0.25</v>
+      </c>
+      <c r="AS159">
+        <v>2.1</v>
+      </c>
+      <c r="AT159">
+        <v>0.22</v>
+      </c>
+      <c r="AU159">
+        <v>2.38</v>
+      </c>
+      <c r="AV159">
+        <v>1.14</v>
+      </c>
+      <c r="AW159">
+        <v>3.52</v>
+      </c>
+      <c r="AX159">
+        <v>1.14</v>
+      </c>
+      <c r="AY159">
+        <v>11</v>
+      </c>
+      <c r="AZ159">
+        <v>7.08</v>
+      </c>
+      <c r="BA159">
+        <v>1.27</v>
+      </c>
+      <c r="BB159">
+        <v>1.48</v>
+      </c>
+      <c r="BC159">
+        <v>1.8</v>
+      </c>
+      <c r="BD159">
+        <v>2.3</v>
+      </c>
+      <c r="BE159">
+        <v>3</v>
+      </c>
+      <c r="BF159">
+        <v>16</v>
+      </c>
+      <c r="BG159">
+        <v>3</v>
+      </c>
+      <c r="BH159">
+        <v>14</v>
+      </c>
+      <c r="BI159">
+        <v>3</v>
+      </c>
+      <c r="BJ159">
+        <v>30</v>
+      </c>
+      <c r="BK159">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['22', '90+5']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1429,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1617,7 +1620,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1999,7 +2002,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2381,7 +2384,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2572,7 +2575,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3145,7 +3148,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3232,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT11">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3426,7 +3429,7 @@
         <v>2.5</v>
       </c>
       <c r="AT12">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3527,7 +3530,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3909,7 +3912,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3996,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
         <v>1.6</v>
@@ -4100,7 +4103,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4482,7 +4485,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4673,7 +4676,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4864,7 +4867,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5437,7 +5440,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5819,7 +5822,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -6201,7 +6204,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6479,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU28">
         <v>0.95</v>
@@ -6583,7 +6586,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6670,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT29">
         <v>0.9</v>
@@ -6864,7 +6867,7 @@
         <v>2.5</v>
       </c>
       <c r="AT30">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU30">
         <v>2.94</v>
@@ -7156,7 +7159,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7347,7 +7350,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7538,7 +7541,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -8111,7 +8114,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8493,7 +8496,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8962,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT41">
         <v>0.1</v>
@@ -9066,7 +9069,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9257,7 +9260,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9538,7 +9541,7 @@
         <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU44">
         <v>1.77</v>
@@ -9639,7 +9642,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10108,7 +10111,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT47">
         <v>0.22</v>
@@ -10212,7 +10215,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10302,7 +10305,7 @@
         <v>1.4</v>
       </c>
       <c r="AT48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48">
         <v>2.61</v>
@@ -10403,7 +10406,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10785,7 +10788,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10976,7 +10979,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11358,7 +11361,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11549,7 +11552,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11740,7 +11743,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11827,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT56">
         <v>1.22</v>
@@ -11931,7 +11934,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12021,7 +12024,7 @@
         <v>2.56</v>
       </c>
       <c r="AT57">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12313,7 +12316,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12403,7 +12406,7 @@
         <v>1.89</v>
       </c>
       <c r="AT59">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU59">
         <v>1.86</v>
@@ -12504,7 +12507,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12591,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT60">
         <v>1.89</v>
@@ -12695,7 +12698,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -13077,7 +13080,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13268,7 +13271,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13459,7 +13462,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13650,7 +13653,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14032,7 +14035,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14414,7 +14417,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14605,7 +14608,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14692,7 +14695,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT71">
         <v>1.22</v>
@@ -14796,7 +14799,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14886,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU72">
         <v>1.82</v>
@@ -15268,7 +15271,7 @@
         <v>2.56</v>
       </c>
       <c r="AT74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU74">
         <v>1.87</v>
@@ -15369,7 +15372,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15560,7 +15563,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15751,7 +15754,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16029,7 +16032,7 @@
         <v>0.6</v>
       </c>
       <c r="AS78">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16133,7 +16136,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16706,7 +16709,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -17088,7 +17091,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17279,7 +17282,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17470,7 +17473,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18234,7 +18237,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18616,7 +18619,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18706,7 +18709,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU92">
         <v>1.69</v>
@@ -19380,7 +19383,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19658,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="AS97">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT97">
         <v>1</v>
@@ -19953,7 +19956,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20613,7 +20616,7 @@
         <v>1.17</v>
       </c>
       <c r="AS102">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20717,7 +20720,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20807,7 +20810,7 @@
         <v>2.33</v>
       </c>
       <c r="AT103">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU103">
         <v>1.79</v>
@@ -21290,7 +21293,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21481,7 +21484,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21672,7 +21675,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -22054,7 +22057,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22245,7 +22248,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22436,7 +22439,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22627,7 +22630,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22717,7 +22720,7 @@
         <v>1.67</v>
       </c>
       <c r="AT113">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU113">
         <v>1.61</v>
@@ -23009,7 +23012,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23096,7 +23099,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT115">
         <v>0.78</v>
@@ -23478,7 +23481,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT117">
         <v>0.5600000000000001</v>
@@ -23672,7 +23675,7 @@
         <v>1.89</v>
       </c>
       <c r="AT118">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -23964,7 +23967,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24346,7 +24349,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -25683,7 +25686,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25874,7 +25877,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -26256,7 +26259,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26447,7 +26450,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26534,7 +26537,7 @@
         <v>1.14</v>
       </c>
       <c r="AS133">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT133">
         <v>1.2</v>
@@ -26728,7 +26731,7 @@
         <v>2.1</v>
       </c>
       <c r="AT134">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU134">
         <v>2.36</v>
@@ -27020,7 +27023,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27110,7 +27113,7 @@
         <v>1.8</v>
       </c>
       <c r="AT136">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU136">
         <v>1.37</v>
@@ -27298,7 +27301,7 @@
         <v>0.57</v>
       </c>
       <c r="AS137">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT137">
         <v>0.4</v>
@@ -28065,7 +28068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT141">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU141">
         <v>1.47</v>
@@ -28357,7 +28360,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28444,7 +28447,7 @@
         <v>1.38</v>
       </c>
       <c r="AS143">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT143">
         <v>1.2</v>
@@ -28548,7 +28551,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28635,7 +28638,7 @@
         <v>1.63</v>
       </c>
       <c r="AS144">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT144">
         <v>1.6</v>
@@ -28829,7 +28832,7 @@
         <v>2.5</v>
       </c>
       <c r="AT145">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU145">
         <v>2.54</v>
@@ -29121,7 +29124,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -30267,7 +30270,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -31222,7 +31225,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31555,6 +31558,388 @@
       </c>
       <c r="BK159">
         <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5182996</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45131.79166666666</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>195</v>
+      </c>
+      <c r="P160" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q160">
+        <v>1</v>
+      </c>
+      <c r="R160">
+        <v>5</v>
+      </c>
+      <c r="S160">
+        <v>6</v>
+      </c>
+      <c r="T160">
+        <v>2.4</v>
+      </c>
+      <c r="U160">
+        <v>2.2</v>
+      </c>
+      <c r="V160">
+        <v>4.75</v>
+      </c>
+      <c r="W160">
+        <v>1.38</v>
+      </c>
+      <c r="X160">
+        <v>2.9</v>
+      </c>
+      <c r="Y160">
+        <v>2.78</v>
+      </c>
+      <c r="Z160">
+        <v>1.41</v>
+      </c>
+      <c r="AA160">
+        <v>6.9</v>
+      </c>
+      <c r="AB160">
+        <v>1.08</v>
+      </c>
+      <c r="AC160">
+        <v>2</v>
+      </c>
+      <c r="AD160">
+        <v>3.3</v>
+      </c>
+      <c r="AE160">
+        <v>3.7</v>
+      </c>
+      <c r="AF160">
+        <v>1.02</v>
+      </c>
+      <c r="AG160">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH160">
+        <v>1.26</v>
+      </c>
+      <c r="AI160">
+        <v>3.34</v>
+      </c>
+      <c r="AJ160">
+        <v>1.98</v>
+      </c>
+      <c r="AK160">
+        <v>1.76</v>
+      </c>
+      <c r="AL160">
+        <v>1.77</v>
+      </c>
+      <c r="AM160">
+        <v>2</v>
+      </c>
+      <c r="AN160">
+        <v>1.23</v>
+      </c>
+      <c r="AO160">
+        <v>1.27</v>
+      </c>
+      <c r="AP160">
+        <v>1.94</v>
+      </c>
+      <c r="AQ160">
+        <v>0.89</v>
+      </c>
+      <c r="AR160">
+        <v>0.44</v>
+      </c>
+      <c r="AS160">
+        <v>1.1</v>
+      </c>
+      <c r="AT160">
+        <v>0.4</v>
+      </c>
+      <c r="AU160">
+        <v>1.55</v>
+      </c>
+      <c r="AV160">
+        <v>1.16</v>
+      </c>
+      <c r="AW160">
+        <v>2.71</v>
+      </c>
+      <c r="AX160">
+        <v>1.51</v>
+      </c>
+      <c r="AY160">
+        <v>8.5</v>
+      </c>
+      <c r="AZ160">
+        <v>3.16</v>
+      </c>
+      <c r="BA160">
+        <v>1.39</v>
+      </c>
+      <c r="BB160">
+        <v>1.66</v>
+      </c>
+      <c r="BC160">
+        <v>2.1</v>
+      </c>
+      <c r="BD160">
+        <v>2.75</v>
+      </c>
+      <c r="BE160">
+        <v>3.8</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>2</v>
+      </c>
+      <c r="BH160">
+        <v>5</v>
+      </c>
+      <c r="BI160">
+        <v>2</v>
+      </c>
+      <c r="BJ160">
+        <v>9</v>
+      </c>
+      <c r="BK160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5182995</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45131.875</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>78</v>
+      </c>
+      <c r="H161" t="s">
+        <v>67</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>201</v>
+      </c>
+      <c r="P161" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q161">
+        <v>3</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>4</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>2.1</v>
+      </c>
+      <c r="V161">
+        <v>4.75</v>
+      </c>
+      <c r="W161">
+        <v>1.38</v>
+      </c>
+      <c r="X161">
+        <v>2.9</v>
+      </c>
+      <c r="Y161">
+        <v>2.74</v>
+      </c>
+      <c r="Z161">
+        <v>1.42</v>
+      </c>
+      <c r="AA161">
+        <v>6.85</v>
+      </c>
+      <c r="AB161">
+        <v>1.08</v>
+      </c>
+      <c r="AC161">
+        <v>1.7</v>
+      </c>
+      <c r="AD161">
+        <v>3.8</v>
+      </c>
+      <c r="AE161">
+        <v>4.5</v>
+      </c>
+      <c r="AF161">
+        <v>1.03</v>
+      </c>
+      <c r="AG161">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH161">
+        <v>1.31</v>
+      </c>
+      <c r="AI161">
+        <v>3.04</v>
+      </c>
+      <c r="AJ161">
+        <v>1.8</v>
+      </c>
+      <c r="AK161">
+        <v>1.93</v>
+      </c>
+      <c r="AL161">
+        <v>1.77</v>
+      </c>
+      <c r="AM161">
+        <v>2</v>
+      </c>
+      <c r="AN161">
+        <v>1.22</v>
+      </c>
+      <c r="AO161">
+        <v>1.27</v>
+      </c>
+      <c r="AP161">
+        <v>1.98</v>
+      </c>
+      <c r="AQ161">
+        <v>1.67</v>
+      </c>
+      <c r="AR161">
+        <v>0.78</v>
+      </c>
+      <c r="AS161">
+        <v>1.8</v>
+      </c>
+      <c r="AT161">
+        <v>0.7</v>
+      </c>
+      <c r="AU161">
+        <v>1.57</v>
+      </c>
+      <c r="AV161">
+        <v>0.97</v>
+      </c>
+      <c r="AW161">
+        <v>2.54</v>
+      </c>
+      <c r="AX161">
+        <v>1.59</v>
+      </c>
+      <c r="AY161">
+        <v>8</v>
+      </c>
+      <c r="AZ161">
+        <v>2.8</v>
+      </c>
+      <c r="BA161">
+        <v>1.38</v>
+      </c>
+      <c r="BB161">
+        <v>1.65</v>
+      </c>
+      <c r="BC161">
+        <v>2.1</v>
+      </c>
+      <c r="BD161">
+        <v>2.7</v>
+      </c>
+      <c r="BE161">
+        <v>3.8</v>
+      </c>
+      <c r="BF161">
+        <v>6</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>4</v>
+      </c>
+      <c r="BI161">
+        <v>7</v>
+      </c>
+      <c r="BJ161">
+        <v>10</v>
+      </c>
+      <c r="BK161">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Bolivia LFPB_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,24 @@
     <t>['22', '90+5']</t>
   </si>
   <si>
+    <t>['63', '90+4']</t>
+  </si>
+  <si>
+    <t>['41', '52', '60', '80']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['45+6', '71', '79']</t>
+  </si>
+  <si>
     <t>['58', '90+1']</t>
   </si>
   <si>
@@ -707,9 +725,6 @@
   </si>
   <si>
     <t>['41', '62']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -820,10 +835,19 @@
     <t>['42', '90+2']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['21', '61']</t>
   </si>
   <si>
-    <t>['21', '61']</t>
+    <t>['62', '68']</t>
+  </si>
+  <si>
+    <t>['40', '90+8']</t>
+  </si>
+  <si>
+    <t>['23', '50']</t>
+  </si>
+  <si>
+    <t>['7', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1516,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT2">
         <v>0.22</v>
@@ -1620,7 +1644,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1707,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1898,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2002,7 +2026,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2089,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2280,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT6">
         <v>1.89</v>
@@ -2384,7 +2408,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2471,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT7">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2575,7 +2599,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2665,7 +2689,7 @@
         <v>2.56</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2853,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3148,7 +3172,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3530,7 +3554,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3811,7 +3835,7 @@
         <v>1.67</v>
       </c>
       <c r="AT14">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3912,7 +3936,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4103,7 +4127,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4485,7 +4509,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4572,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>2.71</v>
@@ -4676,7 +4700,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4763,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -4867,7 +4891,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4954,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU20">
         <v>2.27</v>
@@ -5145,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT21">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>1.88</v>
@@ -5336,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU22">
         <v>1.86</v>
@@ -5440,7 +5464,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5527,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT23">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU23">
         <v>1.86</v>
@@ -5718,10 +5742,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT24">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU24">
         <v>1.42</v>
@@ -5822,7 +5846,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -6204,7 +6228,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6586,7 +6610,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7159,7 +7183,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7350,7 +7374,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7437,10 +7461,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU33">
         <v>1.82</v>
@@ -7541,7 +7565,7 @@
         <v>86</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7628,10 +7652,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT34">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7819,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT35">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>2.06</v>
@@ -8010,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU36">
         <v>1.6</v>
@@ -8114,7 +8138,7 @@
         <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8204,7 +8228,7 @@
         <v>2.1</v>
       </c>
       <c r="AT37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU37">
         <v>2.02</v>
@@ -8392,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT38">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>0.98</v>
@@ -8496,7 +8520,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8583,7 +8607,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8774,10 +8798,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.62</v>
@@ -9069,7 +9093,7 @@
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9260,7 +9284,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9347,7 +9371,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT43">
         <v>1.2</v>
@@ -9642,7 +9666,7 @@
         <v>86</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10215,7 +10239,7 @@
         <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10406,7 +10430,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10493,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.76</v>
@@ -10684,10 +10708,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10788,7 +10812,7 @@
         <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10878,7 +10902,7 @@
         <v>2.1</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>2.26</v>
@@ -10979,7 +11003,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -11066,10 +11090,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU52">
         <v>1.64</v>
@@ -11260,7 +11284,7 @@
         <v>1.8</v>
       </c>
       <c r="AT53">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU53">
         <v>0.93</v>
@@ -11361,7 +11385,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11552,7 +11576,7 @@
         <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11639,7 +11663,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT55">
         <v>1.6</v>
@@ -11743,7 +11767,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11833,7 +11857,7 @@
         <v>1.1</v>
       </c>
       <c r="AT56">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU56">
         <v>1.59</v>
@@ -11934,7 +11958,7 @@
         <v>125</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12316,7 +12340,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12403,7 +12427,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT59">
         <v>0.7</v>
@@ -12507,7 +12531,7 @@
         <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12698,7 +12722,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12976,7 +13000,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13080,7 +13104,7 @@
         <v>131</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13167,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT63">
         <v>1.2</v>
@@ -13271,7 +13295,7 @@
         <v>132</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13462,7 +13486,7 @@
         <v>133</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13549,7 +13573,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT65">
         <v>0.4</v>
@@ -13653,7 +13677,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13743,7 +13767,7 @@
         <v>1.8</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU66">
         <v>0.98</v>
@@ -13931,10 +13955,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT67">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.53</v>
@@ -14035,7 +14059,7 @@
         <v>134</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -14125,7 +14149,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>2.84</v>
@@ -14313,10 +14337,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT69">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>1.78</v>
@@ -14417,7 +14441,7 @@
         <v>135</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14504,10 +14528,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU70">
         <v>1.39</v>
@@ -14608,7 +14632,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14698,7 +14722,7 @@
         <v>1.8</v>
       </c>
       <c r="AT71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU71">
         <v>1.46</v>
@@ -14799,7 +14823,7 @@
         <v>136</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14886,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT72">
         <v>0.4</v>
@@ -15077,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT73">
         <v>0.9</v>
@@ -15268,7 +15292,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT74">
         <v>0.7</v>
@@ -15372,7 +15396,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15563,7 +15587,7 @@
         <v>139</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15653,7 +15677,7 @@
         <v>2.5</v>
       </c>
       <c r="AT76">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU76">
         <v>2.14</v>
@@ -15754,7 +15778,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -16035,7 +16059,7 @@
         <v>1.1</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU78">
         <v>1.6</v>
@@ -16136,7 +16160,7 @@
         <v>105</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16223,7 +16247,7 @@
         <v>2.5</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT79">
         <v>1.6</v>
@@ -16414,7 +16438,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT80">
         <v>1.2</v>
@@ -16605,10 +16629,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16709,7 +16733,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16990,7 +17014,7 @@
         <v>1.8</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU83">
         <v>1.18</v>
@@ -17091,7 +17115,7 @@
         <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17178,7 +17202,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT84">
         <v>0.4</v>
@@ -17282,7 +17306,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17372,7 +17396,7 @@
         <v>2.1</v>
       </c>
       <c r="AT85">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>2.21</v>
@@ -17473,7 +17497,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17560,7 +17584,7 @@
         <v>0.2</v>
       </c>
       <c r="AS86">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT86">
         <v>0.22</v>
@@ -17945,7 +17969,7 @@
         <v>1.67</v>
       </c>
       <c r="AT88">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU88">
         <v>1.66</v>
@@ -18133,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT89">
         <v>0.1</v>
@@ -18237,7 +18261,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18324,7 +18348,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT90">
         <v>0.9</v>
@@ -18518,7 +18542,7 @@
         <v>1.4</v>
       </c>
       <c r="AT91">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU91">
         <v>2.43</v>
@@ -18619,7 +18643,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18706,7 +18730,7 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT92">
         <v>0.4</v>
@@ -18900,7 +18924,7 @@
         <v>2.5</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU93">
         <v>2.04</v>
@@ -19088,7 +19112,7 @@
         <v>1.75</v>
       </c>
       <c r="AS94">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT94">
         <v>1.89</v>
@@ -19279,7 +19303,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT95">
         <v>0.4</v>
@@ -19383,7 +19407,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>6</v>
@@ -19470,10 +19494,10 @@
         <v>0.5</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT96">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU96">
         <v>1.58</v>
@@ -19664,7 +19688,7 @@
         <v>1.1</v>
       </c>
       <c r="AT97">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU97">
         <v>1.52</v>
@@ -19855,7 +19879,7 @@
         <v>2.5</v>
       </c>
       <c r="AT98">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>2.32</v>
@@ -19956,7 +19980,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>10</v>
@@ -20043,7 +20067,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT99">
         <v>1.2</v>
@@ -20237,7 +20261,7 @@
         <v>1.8</v>
       </c>
       <c r="AT100">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU100">
         <v>1.24</v>
@@ -20425,7 +20449,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20720,7 +20744,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>6</v>
@@ -20807,7 +20831,7 @@
         <v>1.2</v>
       </c>
       <c r="AS103">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT103">
         <v>0.7</v>
@@ -21192,7 +21216,7 @@
         <v>2.56</v>
       </c>
       <c r="AT105">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU105">
         <v>1.92</v>
@@ -21293,7 +21317,7 @@
         <v>86</v>
       </c>
       <c r="P106" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -21383,7 +21407,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU106">
         <v>1.54</v>
@@ -21484,7 +21508,7 @@
         <v>114</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21571,7 +21595,7 @@
         <v>1.6</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT107">
         <v>1.89</v>
@@ -21675,7 +21699,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -21762,7 +21786,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT108">
         <v>0.22</v>
@@ -21953,7 +21977,7 @@
         <v>0.83</v>
       </c>
       <c r="AS109">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT109">
         <v>0.9</v>
@@ -22057,7 +22081,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22144,10 +22168,10 @@
         <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT110">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22248,7 +22272,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="Q111">
         <v>11</v>
@@ -22338,7 +22362,7 @@
         <v>1.4</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU111">
         <v>2.36</v>
@@ -22439,7 +22463,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22529,7 +22553,7 @@
         <v>2.5</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU112">
         <v>2.09</v>
@@ -22630,7 +22654,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22717,7 +22741,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT113">
         <v>0.4</v>
@@ -23012,7 +23036,7 @@
         <v>86</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23102,7 +23126,7 @@
         <v>1.8</v>
       </c>
       <c r="AT115">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.56</v>
@@ -23484,7 +23508,7 @@
         <v>1.1</v>
       </c>
       <c r="AT117">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU117">
         <v>1.57</v>
@@ -23672,7 +23696,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT118">
         <v>0.7</v>
@@ -23967,7 +23991,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24245,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="AS121">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT121">
         <v>0.1</v>
@@ -24349,7 +24373,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24436,10 +24460,10 @@
         <v>1.43</v>
       </c>
       <c r="AS122">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT122">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU122">
         <v>1.82</v>
@@ -24818,7 +24842,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT124">
         <v>0.22</v>
@@ -25012,7 +25036,7 @@
         <v>2.56</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU125">
         <v>1.78</v>
@@ -25200,10 +25224,10 @@
         <v>1.57</v>
       </c>
       <c r="AS126">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT126">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU126">
         <v>1.95</v>
@@ -25391,7 +25415,7 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT127">
         <v>1.89</v>
@@ -25582,10 +25606,10 @@
         <v>1.57</v>
       </c>
       <c r="AS128">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU128">
         <v>1.6</v>
@@ -25686,7 +25710,7 @@
         <v>85</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>12</v>
@@ -25773,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT129">
         <v>0.1</v>
@@ -25877,7 +25901,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>2</v>
@@ -25964,7 +25988,7 @@
         <v>0.71</v>
       </c>
       <c r="AS130">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT130">
         <v>0.9</v>
@@ -26158,7 +26182,7 @@
         <v>1.4</v>
       </c>
       <c r="AT131">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>2.39</v>
@@ -26259,7 +26283,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>4</v>
@@ -26450,7 +26474,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26922,7 +26946,7 @@
         <v>2.5</v>
       </c>
       <c r="AT135">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU135">
         <v>2.17</v>
@@ -27023,7 +27047,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27495,7 +27519,7 @@
         <v>1.4</v>
       </c>
       <c r="AT138">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU138">
         <v>2.35</v>
@@ -27683,7 +27707,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT139">
         <v>0.1</v>
@@ -28360,7 +28384,7 @@
         <v>188</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28551,7 +28575,7 @@
         <v>189</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29020,10 +29044,10 @@
         <v>1.13</v>
       </c>
       <c r="AS146">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29124,7 +29148,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29211,7 +29235,7 @@
         <v>1.75</v>
       </c>
       <c r="AS147">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT147">
         <v>1.89</v>
@@ -29402,7 +29426,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29593,10 +29617,10 @@
         <v>1.38</v>
       </c>
       <c r="AS149">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AT149">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU149">
         <v>1.92</v>
@@ -29784,10 +29808,10 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT150">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU150">
         <v>1.78</v>
@@ -29978,7 +30002,7 @@
         <v>2.56</v>
       </c>
       <c r="AT151">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.69</v>
@@ -30166,10 +30190,10 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU152">
         <v>1.94</v>
@@ -30270,7 +30294,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30357,10 +30381,10 @@
         <v>1.38</v>
       </c>
       <c r="AS153">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT153">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU153">
         <v>1.42</v>
@@ -31225,7 +31249,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31940,6 +31964,1534 @@
       </c>
       <c r="BK161">
         <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5183006</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45135.85416666666</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" t="s">
+        <v>77</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>151</v>
+      </c>
+      <c r="P162" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>6</v>
+      </c>
+      <c r="S162">
+        <v>6</v>
+      </c>
+      <c r="T162">
+        <v>2.4</v>
+      </c>
+      <c r="U162">
+        <v>2.2</v>
+      </c>
+      <c r="V162">
+        <v>4.75</v>
+      </c>
+      <c r="W162">
+        <v>1.39</v>
+      </c>
+      <c r="X162">
+        <v>2.75</v>
+      </c>
+      <c r="Y162">
+        <v>2.8</v>
+      </c>
+      <c r="Z162">
+        <v>1.38</v>
+      </c>
+      <c r="AA162">
+        <v>7.2</v>
+      </c>
+      <c r="AB162">
+        <v>1.06</v>
+      </c>
+      <c r="AC162">
+        <v>1.5</v>
+      </c>
+      <c r="AD162">
+        <v>4</v>
+      </c>
+      <c r="AE162">
+        <v>4.85</v>
+      </c>
+      <c r="AF162">
+        <v>1.01</v>
+      </c>
+      <c r="AG162">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH162">
+        <v>1.3</v>
+      </c>
+      <c r="AI162">
+        <v>3.3</v>
+      </c>
+      <c r="AJ162">
+        <v>1.69</v>
+      </c>
+      <c r="AK162">
+        <v>2.07</v>
+      </c>
+      <c r="AL162">
+        <v>1.93</v>
+      </c>
+      <c r="AM162">
+        <v>1.83</v>
+      </c>
+      <c r="AN162">
+        <v>1.2</v>
+      </c>
+      <c r="AO162">
+        <v>1.29</v>
+      </c>
+      <c r="AP162">
+        <v>1.91</v>
+      </c>
+      <c r="AQ162">
+        <v>1</v>
+      </c>
+      <c r="AR162">
+        <v>0.78</v>
+      </c>
+      <c r="AS162">
+        <v>0.9</v>
+      </c>
+      <c r="AT162">
+        <v>1</v>
+      </c>
+      <c r="AU162">
+        <v>1.74</v>
+      </c>
+      <c r="AV162">
+        <v>1.22</v>
+      </c>
+      <c r="AW162">
+        <v>2.96</v>
+      </c>
+      <c r="AX162">
+        <v>1.51</v>
+      </c>
+      <c r="AY162">
+        <v>8.5</v>
+      </c>
+      <c r="AZ162">
+        <v>3.16</v>
+      </c>
+      <c r="BA162">
+        <v>1.31</v>
+      </c>
+      <c r="BB162">
+        <v>1.6</v>
+      </c>
+      <c r="BC162">
+        <v>2.07</v>
+      </c>
+      <c r="BD162">
+        <v>2.75</v>
+      </c>
+      <c r="BE162">
+        <v>3.7</v>
+      </c>
+      <c r="BF162">
+        <v>5</v>
+      </c>
+      <c r="BG162">
+        <v>9</v>
+      </c>
+      <c r="BH162">
+        <v>5</v>
+      </c>
+      <c r="BI162">
+        <v>5</v>
+      </c>
+      <c r="BJ162">
+        <v>10</v>
+      </c>
+      <c r="BK162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5183000</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45136.66666666666</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>81</v>
+      </c>
+      <c r="H163" t="s">
+        <v>79</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>202</v>
+      </c>
+      <c r="P163" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+      <c r="S163">
+        <v>7</v>
+      </c>
+      <c r="T163">
+        <v>3.2</v>
+      </c>
+      <c r="U163">
+        <v>2.2</v>
+      </c>
+      <c r="V163">
+        <v>3.2</v>
+      </c>
+      <c r="W163">
+        <v>1.32</v>
+      </c>
+      <c r="X163">
+        <v>3.1</v>
+      </c>
+      <c r="Y163">
+        <v>2.47</v>
+      </c>
+      <c r="Z163">
+        <v>1.48</v>
+      </c>
+      <c r="AA163">
+        <v>5.9</v>
+      </c>
+      <c r="AB163">
+        <v>1.1</v>
+      </c>
+      <c r="AC163">
+        <v>2.21</v>
+      </c>
+      <c r="AD163">
+        <v>3.3</v>
+      </c>
+      <c r="AE163">
+        <v>2.91</v>
+      </c>
+      <c r="AF163">
+        <v>1.01</v>
+      </c>
+      <c r="AG163">
+        <v>10</v>
+      </c>
+      <c r="AH163">
+        <v>1.25</v>
+      </c>
+      <c r="AI163">
+        <v>3.6</v>
+      </c>
+      <c r="AJ163">
+        <v>2.02</v>
+      </c>
+      <c r="AK163">
+        <v>1.8</v>
+      </c>
+      <c r="AL163">
+        <v>1.6</v>
+      </c>
+      <c r="AM163">
+        <v>2.27</v>
+      </c>
+      <c r="AN163">
+        <v>1.44</v>
+      </c>
+      <c r="AO163">
+        <v>1.33</v>
+      </c>
+      <c r="AP163">
+        <v>1.44</v>
+      </c>
+      <c r="AQ163">
+        <v>1.89</v>
+      </c>
+      <c r="AR163">
+        <v>1.22</v>
+      </c>
+      <c r="AS163">
+        <v>1.8</v>
+      </c>
+      <c r="AT163">
+        <v>1.2</v>
+      </c>
+      <c r="AU163">
+        <v>1.68</v>
+      </c>
+      <c r="AV163">
+        <v>1.18</v>
+      </c>
+      <c r="AW163">
+        <v>2.86</v>
+      </c>
+      <c r="AX163">
+        <v>2</v>
+      </c>
+      <c r="AY163">
+        <v>7.5</v>
+      </c>
+      <c r="AZ163">
+        <v>2.05</v>
+      </c>
+      <c r="BA163">
+        <v>1.33</v>
+      </c>
+      <c r="BB163">
+        <v>1.6</v>
+      </c>
+      <c r="BC163">
+        <v>2.04</v>
+      </c>
+      <c r="BD163">
+        <v>2.71</v>
+      </c>
+      <c r="BE163">
+        <v>3.74</v>
+      </c>
+      <c r="BF163">
+        <v>8</v>
+      </c>
+      <c r="BG163">
+        <v>4</v>
+      </c>
+      <c r="BH163">
+        <v>10</v>
+      </c>
+      <c r="BI163">
+        <v>3</v>
+      </c>
+      <c r="BJ163">
+        <v>18</v>
+      </c>
+      <c r="BK163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5183005</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45136.77083333334</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>66</v>
+      </c>
+      <c r="H164" t="s">
+        <v>80</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>4</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>203</v>
+      </c>
+      <c r="P164" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q164">
+        <v>11</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>11</v>
+      </c>
+      <c r="T164">
+        <v>1.62</v>
+      </c>
+      <c r="U164">
+        <v>2.75</v>
+      </c>
+      <c r="V164">
+        <v>9</v>
+      </c>
+      <c r="W164">
+        <v>1.22</v>
+      </c>
+      <c r="X164">
+        <v>3.75</v>
+      </c>
+      <c r="Y164">
+        <v>2.25</v>
+      </c>
+      <c r="Z164">
+        <v>1.57</v>
+      </c>
+      <c r="AA164">
+        <v>5</v>
+      </c>
+      <c r="AB164">
+        <v>1.14</v>
+      </c>
+      <c r="AC164">
+        <v>1.25</v>
+      </c>
+      <c r="AD164">
+        <v>6</v>
+      </c>
+      <c r="AE164">
+        <v>9.5</v>
+      </c>
+      <c r="AF164">
+        <v>1.02</v>
+      </c>
+      <c r="AG164">
+        <v>20.5</v>
+      </c>
+      <c r="AH164">
+        <v>1.13</v>
+      </c>
+      <c r="AI164">
+        <v>4.85</v>
+      </c>
+      <c r="AJ164">
+        <v>1.5</v>
+      </c>
+      <c r="AK164">
+        <v>2.4</v>
+      </c>
+      <c r="AL164">
+        <v>1.95</v>
+      </c>
+      <c r="AM164">
+        <v>1.76</v>
+      </c>
+      <c r="AN164">
+        <v>1.06</v>
+      </c>
+      <c r="AO164">
+        <v>1.11</v>
+      </c>
+      <c r="AP164">
+        <v>4</v>
+      </c>
+      <c r="AQ164">
+        <v>2.56</v>
+      </c>
+      <c r="AR164">
+        <v>1</v>
+      </c>
+      <c r="AS164">
+        <v>2.6</v>
+      </c>
+      <c r="AT164">
+        <v>0.9</v>
+      </c>
+      <c r="AU164">
+        <v>1.9</v>
+      </c>
+      <c r="AV164">
+        <v>1.5</v>
+      </c>
+      <c r="AW164">
+        <v>3.4</v>
+      </c>
+      <c r="AX164">
+        <v>1.26</v>
+      </c>
+      <c r="AY164">
+        <v>10</v>
+      </c>
+      <c r="AZ164">
+        <v>4.86</v>
+      </c>
+      <c r="BA164">
+        <v>1.28</v>
+      </c>
+      <c r="BB164">
+        <v>1.57</v>
+      </c>
+      <c r="BC164">
+        <v>2</v>
+      </c>
+      <c r="BD164">
+        <v>2.4</v>
+      </c>
+      <c r="BE164">
+        <v>3.4</v>
+      </c>
+      <c r="BF164">
+        <v>10</v>
+      </c>
+      <c r="BG164">
+        <v>4</v>
+      </c>
+      <c r="BH164">
+        <v>8</v>
+      </c>
+      <c r="BI164">
+        <v>2</v>
+      </c>
+      <c r="BJ164">
+        <v>18</v>
+      </c>
+      <c r="BK164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5183004</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45136.875</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>67</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>204</v>
+      </c>
+      <c r="P165" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>6</v>
+      </c>
+      <c r="T165">
+        <v>3.25</v>
+      </c>
+      <c r="U165">
+        <v>2.25</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="W165">
+        <v>1.32</v>
+      </c>
+      <c r="X165">
+        <v>3.22</v>
+      </c>
+      <c r="Y165">
+        <v>2.48</v>
+      </c>
+      <c r="Z165">
+        <v>1.5</v>
+      </c>
+      <c r="AA165">
+        <v>5.95</v>
+      </c>
+      <c r="AB165">
+        <v>1.11</v>
+      </c>
+      <c r="AC165">
+        <v>2.5</v>
+      </c>
+      <c r="AD165">
+        <v>3.45</v>
+      </c>
+      <c r="AE165">
+        <v>2.45</v>
+      </c>
+      <c r="AF165">
+        <v>1.01</v>
+      </c>
+      <c r="AG165">
+        <v>11.7</v>
+      </c>
+      <c r="AH165">
+        <v>1.19</v>
+      </c>
+      <c r="AI165">
+        <v>3.95</v>
+      </c>
+      <c r="AJ165">
+        <v>1.61</v>
+      </c>
+      <c r="AK165">
+        <v>2.05</v>
+      </c>
+      <c r="AL165">
+        <v>1.57</v>
+      </c>
+      <c r="AM165">
+        <v>2.25</v>
+      </c>
+      <c r="AN165">
+        <v>1.56</v>
+      </c>
+      <c r="AO165">
+        <v>1.28</v>
+      </c>
+      <c r="AP165">
+        <v>1.44</v>
+      </c>
+      <c r="AQ165">
+        <v>1.33</v>
+      </c>
+      <c r="AR165">
+        <v>1</v>
+      </c>
+      <c r="AS165">
+        <v>1.3</v>
+      </c>
+      <c r="AT165">
+        <v>1</v>
+      </c>
+      <c r="AU165">
+        <v>1.41</v>
+      </c>
+      <c r="AV165">
+        <v>1.55</v>
+      </c>
+      <c r="AW165">
+        <v>2.96</v>
+      </c>
+      <c r="AX165">
+        <v>2.15</v>
+      </c>
+      <c r="AY165">
+        <v>7</v>
+      </c>
+      <c r="AZ165">
+        <v>2.05</v>
+      </c>
+      <c r="BA165">
+        <v>1.43</v>
+      </c>
+      <c r="BB165">
+        <v>1.73</v>
+      </c>
+      <c r="BC165">
+        <v>2.1</v>
+      </c>
+      <c r="BD165">
+        <v>2.7</v>
+      </c>
+      <c r="BE165">
+        <v>4</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>3</v>
+      </c>
+      <c r="BH165">
+        <v>4</v>
+      </c>
+      <c r="BI165">
+        <v>4</v>
+      </c>
+      <c r="BJ165">
+        <v>9</v>
+      </c>
+      <c r="BK165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5183007</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" t="s">
+        <v>71</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>205</v>
+      </c>
+      <c r="P166" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q166">
+        <v>4</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>7</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
+        <v>2.1</v>
+      </c>
+      <c r="V166">
+        <v>4</v>
+      </c>
+      <c r="W166">
+        <v>1.39</v>
+      </c>
+      <c r="X166">
+        <v>2.86</v>
+      </c>
+      <c r="Y166">
+        <v>2.82</v>
+      </c>
+      <c r="Z166">
+        <v>1.4</v>
+      </c>
+      <c r="AA166">
+        <v>7.2</v>
+      </c>
+      <c r="AB166">
+        <v>1.08</v>
+      </c>
+      <c r="AC166">
+        <v>2.1</v>
+      </c>
+      <c r="AD166">
+        <v>3.02</v>
+      </c>
+      <c r="AE166">
+        <v>2.83</v>
+      </c>
+      <c r="AF166">
+        <v>1.02</v>
+      </c>
+      <c r="AG166">
+        <v>9</v>
+      </c>
+      <c r="AH166">
+        <v>1.27</v>
+      </c>
+      <c r="AI166">
+        <v>3.28</v>
+      </c>
+      <c r="AJ166">
+        <v>1.81</v>
+      </c>
+      <c r="AK166">
+        <v>1.73</v>
+      </c>
+      <c r="AL166">
+        <v>1.75</v>
+      </c>
+      <c r="AM166">
+        <v>1.96</v>
+      </c>
+      <c r="AN166">
+        <v>1.3</v>
+      </c>
+      <c r="AO166">
+        <v>1.3</v>
+      </c>
+      <c r="AP166">
+        <v>1.75</v>
+      </c>
+      <c r="AQ166">
+        <v>1.89</v>
+      </c>
+      <c r="AR166">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS166">
+        <v>1.7</v>
+      </c>
+      <c r="AT166">
+        <v>0.8</v>
+      </c>
+      <c r="AU166">
+        <v>1.57</v>
+      </c>
+      <c r="AV166">
+        <v>1.01</v>
+      </c>
+      <c r="AW166">
+        <v>2.58</v>
+      </c>
+      <c r="AX166">
+        <v>1.75</v>
+      </c>
+      <c r="AY166">
+        <v>7.5</v>
+      </c>
+      <c r="AZ166">
+        <v>2.45</v>
+      </c>
+      <c r="BA166">
+        <v>1.41</v>
+      </c>
+      <c r="BB166">
+        <v>1.76</v>
+      </c>
+      <c r="BC166">
+        <v>2.25</v>
+      </c>
+      <c r="BD166">
+        <v>3.08</v>
+      </c>
+      <c r="BE166">
+        <v>4.2</v>
+      </c>
+      <c r="BF166">
+        <v>6</v>
+      </c>
+      <c r="BG166">
+        <v>9</v>
+      </c>
+      <c r="BH166">
+        <v>10</v>
+      </c>
+      <c r="BI166">
+        <v>4</v>
+      </c>
+      <c r="BJ166">
+        <v>16</v>
+      </c>
+      <c r="BK166">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5183002</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>69</v>
+      </c>
+      <c r="H167" t="s">
+        <v>74</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>86</v>
+      </c>
+      <c r="P167" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q167">
+        <v>9</v>
+      </c>
+      <c r="R167">
+        <v>6</v>
+      </c>
+      <c r="S167">
+        <v>15</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>2.1</v>
+      </c>
+      <c r="V167">
+        <v>4</v>
+      </c>
+      <c r="W167">
+        <v>1.37</v>
+      </c>
+      <c r="X167">
+        <v>2.95</v>
+      </c>
+      <c r="Y167">
+        <v>2.7</v>
+      </c>
+      <c r="Z167">
+        <v>1.43</v>
+      </c>
+      <c r="AA167">
+        <v>6.7</v>
+      </c>
+      <c r="AB167">
+        <v>1.09</v>
+      </c>
+      <c r="AC167">
+        <v>1.94</v>
+      </c>
+      <c r="AD167">
+        <v>3.06</v>
+      </c>
+      <c r="AE167">
+        <v>3.15</v>
+      </c>
+      <c r="AF167">
+        <v>1.01</v>
+      </c>
+      <c r="AG167">
+        <v>9.5</v>
+      </c>
+      <c r="AH167">
+        <v>1.3</v>
+      </c>
+      <c r="AI167">
+        <v>3.08</v>
+      </c>
+      <c r="AJ167">
+        <v>1.98</v>
+      </c>
+      <c r="AK167">
+        <v>1.77</v>
+      </c>
+      <c r="AL167">
+        <v>1.75</v>
+      </c>
+      <c r="AM167">
+        <v>1.96</v>
+      </c>
+      <c r="AN167">
+        <v>1.22</v>
+      </c>
+      <c r="AO167">
+        <v>1.27</v>
+      </c>
+      <c r="AP167">
+        <v>1.96</v>
+      </c>
+      <c r="AQ167">
+        <v>2.33</v>
+      </c>
+      <c r="AR167">
+        <v>1.33</v>
+      </c>
+      <c r="AS167">
+        <v>2.1</v>
+      </c>
+      <c r="AT167">
+        <v>1.5</v>
+      </c>
+      <c r="AU167">
+        <v>1.87</v>
+      </c>
+      <c r="AV167">
+        <v>1.56</v>
+      </c>
+      <c r="AW167">
+        <v>3.43</v>
+      </c>
+      <c r="AX167">
+        <v>1.55</v>
+      </c>
+      <c r="AY167">
+        <v>8</v>
+      </c>
+      <c r="AZ167">
+        <v>2.92</v>
+      </c>
+      <c r="BA167">
+        <v>1.31</v>
+      </c>
+      <c r="BB167">
+        <v>1.54</v>
+      </c>
+      <c r="BC167">
+        <v>2</v>
+      </c>
+      <c r="BD167">
+        <v>2.44</v>
+      </c>
+      <c r="BE167">
+        <v>3.3</v>
+      </c>
+      <c r="BF167">
+        <v>4</v>
+      </c>
+      <c r="BG167">
+        <v>8</v>
+      </c>
+      <c r="BH167">
+        <v>8</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>12</v>
+      </c>
+      <c r="BK167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5183003</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45137.85416666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s">
+        <v>78</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>206</v>
+      </c>
+      <c r="P168" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
+        <v>2.2</v>
+      </c>
+      <c r="U168">
+        <v>2.5</v>
+      </c>
+      <c r="V168">
+        <v>4.5</v>
+      </c>
+      <c r="W168">
+        <v>1.28</v>
+      </c>
+      <c r="X168">
+        <v>3.48</v>
+      </c>
+      <c r="Y168">
+        <v>2.29</v>
+      </c>
+      <c r="Z168">
+        <v>1.58</v>
+      </c>
+      <c r="AA168">
+        <v>5.25</v>
+      </c>
+      <c r="AB168">
+        <v>1.14</v>
+      </c>
+      <c r="AC168">
+        <v>1.47</v>
+      </c>
+      <c r="AD168">
+        <v>4</v>
+      </c>
+      <c r="AE168">
+        <v>5.5</v>
+      </c>
+      <c r="AF168">
+        <v>1.01</v>
+      </c>
+      <c r="AG168">
+        <v>13.5</v>
+      </c>
+      <c r="AH168">
+        <v>1.15</v>
+      </c>
+      <c r="AI168">
+        <v>4.55</v>
+      </c>
+      <c r="AJ168">
+        <v>1.65</v>
+      </c>
+      <c r="AK168">
+        <v>2.05</v>
+      </c>
+      <c r="AL168">
+        <v>1.58</v>
+      </c>
+      <c r="AM168">
+        <v>2.23</v>
+      </c>
+      <c r="AN168">
+        <v>1.19</v>
+      </c>
+      <c r="AO168">
+        <v>1.22</v>
+      </c>
+      <c r="AP168">
+        <v>2.18</v>
+      </c>
+      <c r="AQ168">
+        <v>1.56</v>
+      </c>
+      <c r="AR168">
+        <v>1</v>
+      </c>
+      <c r="AS168">
+        <v>1.7</v>
+      </c>
+      <c r="AT168">
+        <v>0.9</v>
+      </c>
+      <c r="AU168">
+        <v>1.7</v>
+      </c>
+      <c r="AV168">
+        <v>0.95</v>
+      </c>
+      <c r="AW168">
+        <v>2.65</v>
+      </c>
+      <c r="AX168">
+        <v>1.45</v>
+      </c>
+      <c r="AY168">
+        <v>8.5</v>
+      </c>
+      <c r="AZ168">
+        <v>3.29</v>
+      </c>
+      <c r="BA168">
+        <v>1.39</v>
+      </c>
+      <c r="BB168">
+        <v>1.66</v>
+      </c>
+      <c r="BC168">
+        <v>2.1</v>
+      </c>
+      <c r="BD168">
+        <v>2.75</v>
+      </c>
+      <c r="BE168">
+        <v>3.8</v>
+      </c>
+      <c r="BF168">
+        <v>6</v>
+      </c>
+      <c r="BG168">
+        <v>3</v>
+      </c>
+      <c r="BH168">
+        <v>6</v>
+      </c>
+      <c r="BI168">
+        <v>3</v>
+      </c>
+      <c r="BJ168">
+        <v>12</v>
+      </c>
+      <c r="BK168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5183001</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45138.66666666666</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>65</v>
+      </c>
+      <c r="H169" t="s">
+        <v>75</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>207</v>
+      </c>
+      <c r="P169" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>6</v>
+      </c>
+      <c r="T169">
+        <v>3.4</v>
+      </c>
+      <c r="U169">
+        <v>2.3</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.29</v>
+      </c>
+      <c r="X169">
+        <v>3.25</v>
+      </c>
+      <c r="Y169">
+        <v>2.5</v>
+      </c>
+      <c r="Z169">
+        <v>1.5</v>
+      </c>
+      <c r="AA169">
+        <v>6</v>
+      </c>
+      <c r="AB169">
+        <v>1.12</v>
+      </c>
+      <c r="AC169">
+        <v>2.85</v>
+      </c>
+      <c r="AD169">
+        <v>3.6</v>
+      </c>
+      <c r="AE169">
+        <v>2.25</v>
+      </c>
+      <c r="AF169">
+        <v>1.03</v>
+      </c>
+      <c r="AG169">
+        <v>15.25</v>
+      </c>
+      <c r="AH169">
+        <v>1.17</v>
+      </c>
+      <c r="AI169">
+        <v>4.45</v>
+      </c>
+      <c r="AJ169">
+        <v>1.61</v>
+      </c>
+      <c r="AK169">
+        <v>2.23</v>
+      </c>
+      <c r="AL169">
+        <v>1.5</v>
+      </c>
+      <c r="AM169">
+        <v>2.51</v>
+      </c>
+      <c r="AN169">
+        <v>1.62</v>
+      </c>
+      <c r="AO169">
+        <v>1.29</v>
+      </c>
+      <c r="AP169">
+        <v>1.36</v>
+      </c>
+      <c r="AQ169">
+        <v>1.67</v>
+      </c>
+      <c r="AR169">
+        <v>1.22</v>
+      </c>
+      <c r="AS169">
+        <v>1.8</v>
+      </c>
+      <c r="AT169">
+        <v>1.1</v>
+      </c>
+      <c r="AU169">
+        <v>1.76</v>
+      </c>
+      <c r="AV169">
+        <v>1.22</v>
+      </c>
+      <c r="AW169">
+        <v>2.98</v>
+      </c>
+      <c r="AX169">
+        <v>2.1</v>
+      </c>
+      <c r="AY169">
+        <v>7.5</v>
+      </c>
+      <c r="AZ169">
+        <v>2</v>
+      </c>
+      <c r="BA169">
+        <v>1.33</v>
+      </c>
+      <c r="BB169">
+        <v>1.67</v>
+      </c>
+      <c r="BC169">
+        <v>2.13</v>
+      </c>
+      <c r="BD169">
+        <v>2.9</v>
+      </c>
+      <c r="BE169">
+        <v>3.9</v>
+      </c>
+      <c r="BF169">
+        <v>11</v>
+      </c>
+      <c r="BG169">
+        <v>6</v>
+      </c>
+      <c r="BH169">
+        <v>6</v>
+      </c>
+      <c r="BI169">
+        <v>3</v>
+      </c>
+      <c r="BJ169">
+        <v>17</v>
+      </c>
+      <c r="BK169">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
